--- a/data/imports/dbm.xlsx
+++ b/data/imports/dbm.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sigma/Desktop/campaigns/data/imports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459F8ABB-09B4-FE44-AFEC-583E28ADAECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D6A07E-1F8D-D345-9359-48748219603F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-340" yWindow="500" windowWidth="28800" windowHeight="15940" xr2:uid="{79E0A605-CB6F-8242-AFF3-0304699EF542}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{79E0A605-CB6F-8242-AFF3-0304699EF542}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$A$1:$L$223</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,99 +39,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="36">
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>IO Name</t>
-  </si>
-  <si>
-    <t>Budget</t>
-  </si>
-  <si>
-    <t>Impressions</t>
-  </si>
-  <si>
-    <t>Clics</t>
-  </si>
-  <si>
-    <t>Conversions Totales</t>
-  </si>
-  <si>
-    <t>Vues 25%</t>
-  </si>
-  <si>
-    <t>Vues 50%</t>
-  </si>
-  <si>
-    <t>Vues 75%</t>
-  </si>
-  <si>
-    <t>Vues 100%</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="36">
   <si>
     <t>DBM</t>
-  </si>
-  <si>
-    <t>Dsp</t>
-  </si>
-  <si>
-    <t>Advertiser</t>
-  </si>
-  <si>
-    <t>Strategy</t>
-  </si>
-  <si>
-    <t>Creative</t>
-  </si>
-  <si>
-    <t>CV PC</t>
-  </si>
-  <si>
-    <t>CV PV</t>
   </si>
   <si>
     <t>FR - Django</t>
   </si>
   <si>
-    <t>2020-07 - Django de Peaugres - Réouverture 2020 - Multi-device - IAB - CPM</t>
-  </si>
-  <si>
     <t>FR - Python</t>
-  </si>
-  <si>
-    <t>2020-07 - Python - Réouverture 2020 - Multi-device - IAB - CPM</t>
   </si>
   <si>
     <t>FR - Java</t>
   </si>
   <si>
-    <t>2020-07 - Java - Réouverture 2020 - Multi-device - IAB - CPM</t>
-  </si>
-  <si>
     <t>FR - Pandas</t>
-  </si>
-  <si>
-    <t>2020-07 - Pandas - Réouverture 2020 - Multi-device - IAB - CPM</t>
   </si>
   <si>
     <t>FR - Docker</t>
   </si>
   <si>
-    <t>2020-07 - Docker - Réouverture 2020 - Multi-device - Vid. pre-roll - CPM</t>
-  </si>
-  <si>
     <t>FR - Sphinx</t>
   </si>
   <si>
-    <t>2020-07 - Sphinx - Réouverture 2020 - Multi-device - IAB - CPM</t>
-  </si>
-  <si>
     <t>FR - Git</t>
-  </si>
-  <si>
-    <t>2020-07 - Git - Réouverture 2020 - Multi-device - IAB - CPM</t>
   </si>
   <si>
     <t>Mediamath</t>
@@ -145,13 +79,83 @@
   <si>
     <t>FreeWheel</t>
   </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>dsp</t>
+  </si>
+  <si>
+    <t>ddvertiser</t>
+  </si>
+  <si>
+    <t>strategy</t>
+  </si>
+  <si>
+    <t>creative</t>
+  </si>
+  <si>
+    <t>budget</t>
+  </si>
+  <si>
+    <t>impressions</t>
+  </si>
+  <si>
+    <t>clics</t>
+  </si>
+  <si>
+    <t>2023-10 - FR - Django - Cotoben - Multi-device - IAB - CPM</t>
+  </si>
+  <si>
+    <t>2023-10 - FR - Git - GitHub - Multi-device - IAB - CPM</t>
+  </si>
+  <si>
+    <t>2023-10 - FR - Java - Tabaski - Multi-device - IAB - CPM</t>
+  </si>
+  <si>
+    <t>2023-10 - FR - Pandas - Rouverture - Multi-device - IAB - CPM</t>
+  </si>
+  <si>
+    <t>2023-10 - FR - Sphinx - Documentation - Multi-device - IAB - CPM</t>
+  </si>
+  <si>
+    <t>inserrtion_order</t>
+  </si>
+  <si>
+    <t>conversions</t>
+  </si>
+  <si>
+    <t>cv pc</t>
+  </si>
+  <si>
+    <t>cv pv</t>
+  </si>
+  <si>
+    <t>socio</t>
+  </si>
+  <si>
+    <t>Pave</t>
+  </si>
+  <si>
+    <t>Comp</t>
+  </si>
+  <si>
+    <t>Megaban</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$€-2]\ #\ ##0.00;[Red]\-[$€-2]\ #\ ##0.00"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -214,13 +218,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="15" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,80 +543,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C738259D-B6ED-754E-861B-CE2294D8A180}">
-  <dimension ref="A1:P223"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D217" sqref="D217"/>
+    <sheetView tabSelected="1" topLeftCell="B130" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="E152" sqref="E152:F153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="20" style="9" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="70.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>45108</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -630,31 +629,19 @@
       <c r="L2" s="3">
         <v>12</v>
       </c>
-      <c r="M2" s="5">
-        <v>4820</v>
-      </c>
-      <c r="N2" s="5">
-        <v>4420</v>
-      </c>
-      <c r="O2" s="5">
-        <v>4111</v>
-      </c>
-      <c r="P2" s="5">
-        <v>3861</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>45109</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -676,31 +663,19 @@
       <c r="L3" s="3">
         <v>12</v>
       </c>
-      <c r="M3" s="3">
+    </row>
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>45139</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>44015</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -722,31 +697,19 @@
       <c r="L4" s="3">
         <v>12</v>
       </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45108</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -768,31 +731,19 @@
       <c r="L5" s="3">
         <v>12</v>
       </c>
-      <c r="M5" s="5">
-        <v>-3213.3333333333298</v>
-      </c>
-      <c r="N5" s="5">
-        <v>-2946.6666666666702</v>
-      </c>
-      <c r="O5" s="5">
-        <v>-2740.6666666666702</v>
-      </c>
-      <c r="P5" s="5">
-        <v>-2574</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45109</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -814,31 +765,19 @@
       <c r="L6" s="3">
         <v>12</v>
       </c>
-      <c r="M6" s="3">
-        <v>-5623.3333333333303</v>
-      </c>
-      <c r="N6" s="3">
-        <v>-5156.6666666666697</v>
-      </c>
-      <c r="O6" s="3">
-        <v>-4796.1666666666697</v>
-      </c>
-      <c r="P6" s="3">
-        <v>-4504.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>44015</v>
+    </row>
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>45140</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -860,31 +799,19 @@
       <c r="L7" s="3">
         <v>12</v>
       </c>
-      <c r="M7" s="3">
-        <v>-8033.3333333333303</v>
-      </c>
-      <c r="N7" s="3">
-        <v>-7366.6666666666697</v>
-      </c>
-      <c r="O7" s="3">
-        <v>-6851.6666666666697</v>
-      </c>
-      <c r="P7" s="3">
-        <v>-6435</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>45108</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>18</v>
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -906,31 +833,19 @@
       <c r="L8" s="3">
         <v>12</v>
       </c>
-      <c r="M8" s="5">
-        <v>-10443.333333333299</v>
-      </c>
-      <c r="N8" s="5">
-        <v>-9576.6666666666697</v>
-      </c>
-      <c r="O8" s="5">
-        <v>-8907.1666666666697</v>
-      </c>
-      <c r="P8" s="5">
-        <v>-8365.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>45109</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -952,31 +867,19 @@
       <c r="L9" s="3">
         <v>12</v>
       </c>
-      <c r="M9" s="3">
-        <v>-12853.333333333299</v>
-      </c>
-      <c r="N9" s="3">
-        <v>-11786.666666666701</v>
-      </c>
-      <c r="O9" s="3">
-        <v>-10962.666666666701</v>
-      </c>
-      <c r="P9" s="3">
-        <v>-10296</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>44015</v>
+    </row>
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>45140</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -998,31 +901,19 @@
       <c r="L10" s="3">
         <v>12</v>
       </c>
-      <c r="M10" s="3">
-        <v>-15263.333333333299</v>
-      </c>
-      <c r="N10" s="3">
-        <v>-13996.666666666701</v>
-      </c>
-      <c r="O10" s="3">
-        <v>-13018.166666666701</v>
-      </c>
-      <c r="P10" s="3">
-        <v>-12226.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>45108</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -1044,31 +935,19 @@
       <c r="L11" s="3">
         <v>12</v>
       </c>
-      <c r="M11" s="5">
-        <v>-17673.333333333299</v>
-      </c>
-      <c r="N11" s="5">
-        <v>-16206.666666666701</v>
-      </c>
-      <c r="O11" s="5">
-        <v>-15073.666666666701</v>
-      </c>
-      <c r="P11" s="5">
-        <v>-14157</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>45109</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1090,31 +969,19 @@
       <c r="L12" s="3">
         <v>12</v>
       </c>
-      <c r="M12" s="3">
-        <v>-20083.333333333299</v>
-      </c>
-      <c r="N12" s="3">
-        <v>-18416.666666666701</v>
-      </c>
-      <c r="O12" s="3">
-        <v>-17129.166666666701</v>
-      </c>
-      <c r="P12" s="3">
-        <v>-16087.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
-        <v>44015</v>
+    </row>
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>45141</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -1136,31 +1003,19 @@
       <c r="L13" s="3">
         <v>12</v>
       </c>
-      <c r="M13" s="3">
-        <v>-22493.333333333299</v>
-      </c>
-      <c r="N13" s="3">
-        <v>-20626.666666666701</v>
-      </c>
-      <c r="O13" s="3">
-        <v>-19184.666666666701</v>
-      </c>
-      <c r="P13" s="3">
-        <v>-18018</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>45108</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -1182,31 +1037,19 @@
       <c r="L14" s="3">
         <v>12</v>
       </c>
-      <c r="M14" s="5">
-        <v>-24903.333333333299</v>
-      </c>
-      <c r="N14" s="5">
-        <v>-22836.666666666701</v>
-      </c>
-      <c r="O14" s="5">
-        <v>-21240.166666666701</v>
-      </c>
-      <c r="P14" s="5">
-        <v>-19948.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>45109</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -1228,31 +1071,19 @@
       <c r="L15" s="3">
         <v>12</v>
       </c>
-      <c r="M15" s="3">
-        <v>-27313.333333333299</v>
-      </c>
-      <c r="N15" s="3">
-        <v>-25046.666666666701</v>
-      </c>
-      <c r="O15" s="3">
-        <v>-23295.666666666701</v>
-      </c>
-      <c r="P15" s="3">
-        <v>-21879</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="2">
-        <v>44015</v>
+    </row>
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>45142</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1274,31 +1105,19 @@
       <c r="L16" s="3">
         <v>12</v>
       </c>
-      <c r="M16" s="3">
-        <v>-29723.333333333299</v>
-      </c>
-      <c r="N16" s="3">
-        <v>-27256.666666666701</v>
-      </c>
-      <c r="O16" s="3">
-        <v>-25351.166666666701</v>
-      </c>
-      <c r="P16" s="3">
-        <v>-23809.5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>45108</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -1320,31 +1139,19 @@
       <c r="L17" s="3">
         <v>12</v>
       </c>
-      <c r="M17" s="5">
-        <v>-32133.333333333299</v>
-      </c>
-      <c r="N17" s="5">
-        <v>-29466.666666666701</v>
-      </c>
-      <c r="O17" s="5">
-        <v>-27406.666666666701</v>
-      </c>
-      <c r="P17" s="5">
-        <v>-25740</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>45109</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>20</v>
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -1366,31 +1173,19 @@
       <c r="L18" s="3">
         <v>12</v>
       </c>
-      <c r="M18" s="3">
-        <v>-34543.333333333299</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-31676.666666666701</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-29462.166666666701</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-27670.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="2">
-        <v>44015</v>
+    </row>
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
+        <v>45143</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -1412,31 +1207,19 @@
       <c r="L19" s="3">
         <v>12</v>
       </c>
-      <c r="M19" s="3">
-        <v>-36953.333333333299</v>
-      </c>
-      <c r="N19" s="3">
-        <v>-33886.666666666701</v>
-      </c>
-      <c r="O19" s="3">
-        <v>-31517.666666666701</v>
-      </c>
-      <c r="P19" s="3">
-        <v>-29601</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="2">
-        <v>45108</v>
+    </row>
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
+        <v>45143</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -1458,31 +1241,19 @@
       <c r="L20" s="3">
         <v>12</v>
       </c>
-      <c r="M20" s="5">
-        <v>-39363.333333333299</v>
-      </c>
-      <c r="N20" s="5">
-        <v>-36096.666666666701</v>
-      </c>
-      <c r="O20" s="5">
-        <v>-33573.166666666701</v>
-      </c>
-      <c r="P20" s="5">
-        <v>-31531.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="2">
-        <v>45109</v>
+    </row>
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
+        <v>45143</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
       </c>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -1504,31 +1275,19 @@
       <c r="L21" s="3">
         <v>12</v>
       </c>
-      <c r="M21" s="3">
-        <v>-41773.333333333299</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-38306.666666666701</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-35628.666666666701</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-33462</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>44015</v>
+    </row>
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
+        <v>45143</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -1550,31 +1309,19 @@
       <c r="L22" s="3">
         <v>12</v>
       </c>
-      <c r="M22" s="3">
-        <v>-44183.333333333299</v>
-      </c>
-      <c r="N22" s="3">
-        <v>-40516.666666666701</v>
-      </c>
-      <c r="O22" s="3">
-        <v>-37684.166666666701</v>
-      </c>
-      <c r="P22" s="3">
-        <v>-35392.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
+    </row>
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
         <v>45108</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
       </c>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -1596,31 +1343,19 @@
       <c r="L23" s="3">
         <v>12</v>
       </c>
-      <c r="M23" s="5">
-        <v>-46593.333333333299</v>
-      </c>
-      <c r="N23" s="5">
-        <v>-42726.666666666701</v>
-      </c>
-      <c r="O23" s="5">
-        <v>-39739.666666666701</v>
-      </c>
-      <c r="P23" s="5">
-        <v>-37323</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
+    </row>
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
         <v>45109</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -1642,31 +1377,19 @@
       <c r="L24" s="3">
         <v>12</v>
       </c>
-      <c r="M24" s="3">
-        <v>-49003.333333333299</v>
-      </c>
-      <c r="N24" s="3">
-        <v>-44936.666666666701</v>
-      </c>
-      <c r="O24" s="3">
-        <v>-41795.166666666701</v>
-      </c>
-      <c r="P24" s="3">
-        <v>-39253.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>44015</v>
+    </row>
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8">
+        <v>45145</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -1688,31 +1411,19 @@
       <c r="L25" s="3">
         <v>12</v>
       </c>
-      <c r="M25" s="3">
-        <v>-51413.333333333299</v>
-      </c>
-      <c r="N25" s="3">
-        <v>-47146.666666666701</v>
-      </c>
-      <c r="O25" s="3">
-        <v>-43850.666666666701</v>
-      </c>
-      <c r="P25" s="3">
-        <v>-41184</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
+    </row>
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
         <v>45108</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -1734,31 +1445,19 @@
       <c r="L26" s="3">
         <v>12</v>
       </c>
-      <c r="M26" s="5">
-        <v>-53823.333333333299</v>
-      </c>
-      <c r="N26" s="5">
-        <v>-49356.666666666701</v>
-      </c>
-      <c r="O26" s="5">
-        <v>-45906.166666666701</v>
-      </c>
-      <c r="P26" s="5">
-        <v>-43114.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
+    </row>
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8">
         <v>45109</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>23</v>
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -1780,31 +1479,19 @@
       <c r="L27" s="3">
         <v>12</v>
       </c>
-      <c r="M27" s="3">
-        <v>-56233.333333333299</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-51566.666666666701</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-47961.666666666701</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-45045</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>44015</v>
+    </row>
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
+        <v>45146</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>23</v>
       </c>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -1826,31 +1513,19 @@
       <c r="L28" s="3">
         <v>12</v>
       </c>
-      <c r="M28" s="3">
-        <v>-58643.333333333299</v>
-      </c>
-      <c r="N28" s="3">
-        <v>-53776.666666666701</v>
-      </c>
-      <c r="O28" s="3">
-        <v>-50017.166666666701</v>
-      </c>
-      <c r="P28" s="3">
-        <v>-46975.5</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
+    </row>
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="8">
         <v>45108</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -1872,31 +1547,19 @@
       <c r="L29" s="3">
         <v>12</v>
       </c>
-      <c r="M29" s="5">
-        <v>-61053.333333333299</v>
-      </c>
-      <c r="N29" s="5">
-        <v>-55986.666666666701</v>
-      </c>
-      <c r="O29" s="5">
-        <v>-52072.666666666701</v>
-      </c>
-      <c r="P29" s="5">
-        <v>-48906</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
+    </row>
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="8">
         <v>45109</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -1918,31 +1581,19 @@
       <c r="L30" s="3">
         <v>12</v>
       </c>
-      <c r="M30" s="3">
-        <v>-63463.333333333299</v>
-      </c>
-      <c r="N30" s="3">
-        <v>-58196.666666666701</v>
-      </c>
-      <c r="O30" s="3">
-        <v>-54128.166666666701</v>
-      </c>
-      <c r="P30" s="3">
-        <v>-50836.5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>44015</v>
+    </row>
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="8">
+        <v>45147</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>23</v>
       </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -1964,31 +1615,19 @@
       <c r="L31" s="3">
         <v>12</v>
       </c>
-      <c r="M31" s="3">
-        <v>-65873.333333333299</v>
-      </c>
-      <c r="N31" s="3">
-        <v>-60406.666666666701</v>
-      </c>
-      <c r="O31" s="3">
-        <v>-56183.666666666701</v>
-      </c>
-      <c r="P31" s="3">
-        <v>-52767</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
+    </row>
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="8">
         <v>45108</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>23</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -2010,31 +1649,19 @@
       <c r="L32" s="3">
         <v>12</v>
       </c>
-      <c r="M32" s="5">
-        <v>-68283.333333333299</v>
-      </c>
-      <c r="N32" s="5">
-        <v>-62616.666666666701</v>
-      </c>
-      <c r="O32" s="5">
-        <v>-58239.166666666701</v>
-      </c>
-      <c r="P32" s="5">
-        <v>-54697.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
+    </row>
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="8">
         <v>45109</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>23</v>
       </c>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -2056,31 +1683,19 @@
       <c r="L33" s="3">
         <v>12</v>
       </c>
-      <c r="M33" s="3">
-        <v>-70693.333333333299</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-64826.666666666701</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-60294.666666666701</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-56628</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A34" s="2">
-        <v>44015</v>
+    </row>
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="8">
+        <v>45148</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>23</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -2102,31 +1717,19 @@
       <c r="L34" s="3">
         <v>12</v>
       </c>
-      <c r="M34" s="3">
-        <v>-73103.333333333299</v>
-      </c>
-      <c r="N34" s="3">
-        <v>-67036.666666666701</v>
-      </c>
-      <c r="O34" s="3">
-        <v>-62350.166666666701</v>
-      </c>
-      <c r="P34" s="3">
-        <v>-58558.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="2">
+    </row>
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="8">
         <v>45108</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -2148,31 +1751,19 @@
       <c r="L35" s="3">
         <v>12</v>
       </c>
-      <c r="M35" s="5">
-        <v>-75513.333333333299</v>
-      </c>
-      <c r="N35" s="5">
-        <v>-69246.666666666701</v>
-      </c>
-      <c r="O35" s="5">
-        <v>-64405.666666666701</v>
-      </c>
-      <c r="P35" s="5">
-        <v>-60489</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
+    </row>
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="8">
         <v>45109</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>23</v>
       </c>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -2194,31 +1785,19 @@
       <c r="L36" s="3">
         <v>12</v>
       </c>
-      <c r="M36" s="3">
-        <v>-77923.333333333299</v>
-      </c>
-      <c r="N36" s="3">
-        <v>-71456.666666666701</v>
-      </c>
-      <c r="O36" s="3">
-        <v>-66461.166666666701</v>
-      </c>
-      <c r="P36" s="3">
-        <v>-62419.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="2">
-        <v>44015</v>
+    </row>
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="8">
+        <v>45139</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>23</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -2240,31 +1819,19 @@
       <c r="L37" s="3">
         <v>12</v>
       </c>
-      <c r="M37" s="3">
-        <v>-80333.333333333299</v>
-      </c>
-      <c r="N37" s="3">
-        <v>-73666.666666666701</v>
-      </c>
-      <c r="O37" s="3">
-        <v>-68516.666666666701</v>
-      </c>
-      <c r="P37" s="3">
-        <v>-64350</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A38" s="2">
+    </row>
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="8">
         <v>45108</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>23</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -2286,31 +1853,19 @@
       <c r="L38" s="3">
         <v>12</v>
       </c>
-      <c r="M38" s="5">
-        <v>-82743.333333333299</v>
-      </c>
-      <c r="N38" s="5">
-        <v>-75876.666666666701</v>
-      </c>
-      <c r="O38" s="5">
-        <v>-70572.166666666701</v>
-      </c>
-      <c r="P38" s="5">
-        <v>-66280.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A39" s="2">
+    </row>
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="8">
         <v>45109</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>23</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -2332,31 +1887,19 @@
       <c r="L39" s="3">
         <v>12</v>
       </c>
-      <c r="M39" s="3">
-        <v>-85153.333333333299</v>
-      </c>
-      <c r="N39" s="3">
-        <v>-78086.666666666701</v>
-      </c>
-      <c r="O39" s="3">
-        <v>-72627.666666666701</v>
-      </c>
-      <c r="P39" s="3">
-        <v>-68211</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" s="2">
-        <v>44015</v>
+    </row>
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="8">
+        <v>45139</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>23</v>
       </c>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
@@ -2378,31 +1921,19 @@
       <c r="L40" s="3">
         <v>12</v>
       </c>
-      <c r="M40" s="3">
-        <v>-87563.333333333299</v>
-      </c>
-      <c r="N40" s="3">
-        <v>-80296.666666666701</v>
-      </c>
-      <c r="O40" s="3">
-        <v>-74683.166666666701</v>
-      </c>
-      <c r="P40" s="3">
-        <v>-70141.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" s="2">
+    </row>
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="8">
         <v>45108</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>22</v>
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>23</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -2424,30 +1955,18 @@
       <c r="L41" s="3">
         <v>12</v>
       </c>
-      <c r="M41" s="5">
-        <v>-89973.333333333299</v>
-      </c>
-      <c r="N41" s="5">
-        <v>-82506.666666666701</v>
-      </c>
-      <c r="O41" s="5">
-        <v>-76738.666666666701</v>
-      </c>
-      <c r="P41" s="5">
-        <v>-72072</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>45109</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
         <v>24</v>
       </c>
       <c r="E42" s="3"/>
@@ -2470,30 +1989,18 @@
       <c r="L42" s="3">
         <v>12</v>
       </c>
-      <c r="M42" s="3">
-        <v>-92383.333333333299</v>
-      </c>
-      <c r="N42" s="3">
-        <v>-84716.666666666701</v>
-      </c>
-      <c r="O42" s="3">
-        <v>-78794.166666666701</v>
-      </c>
-      <c r="P42" s="3">
-        <v>-74002.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A43" s="2">
-        <v>44015</v>
+    </row>
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
+        <v>45139</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" t="s">
         <v>24</v>
       </c>
       <c r="E43" s="3"/>
@@ -2516,30 +2023,18 @@
       <c r="L43" s="3">
         <v>12</v>
       </c>
-      <c r="M43" s="3">
-        <v>-94793.333333333299</v>
-      </c>
-      <c r="N43" s="3">
-        <v>-86926.666666666701</v>
-      </c>
-      <c r="O43" s="3">
-        <v>-80849.666666666701</v>
-      </c>
-      <c r="P43" s="3">
-        <v>-75933</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>45108</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" t="s">
         <v>24</v>
       </c>
       <c r="E44" s="3"/>
@@ -2562,30 +2057,18 @@
       <c r="L44" s="3">
         <v>12</v>
       </c>
-      <c r="M44" s="5">
-        <v>-97203.333333333299</v>
-      </c>
-      <c r="N44" s="5">
-        <v>-89136.666666666701</v>
-      </c>
-      <c r="O44" s="5">
-        <v>-82905.166666666701</v>
-      </c>
-      <c r="P44" s="5">
-        <v>-77863.5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>45109</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" t="s">
         <v>24</v>
       </c>
       <c r="E45" s="3"/>
@@ -2608,30 +2091,18 @@
       <c r="L45" s="3">
         <v>12</v>
       </c>
-      <c r="M45" s="3">
-        <v>-99613.333333333299</v>
-      </c>
-      <c r="N45" s="3">
-        <v>-91346.666666666701</v>
-      </c>
-      <c r="O45" s="3">
-        <v>-84960.666666666701</v>
-      </c>
-      <c r="P45" s="3">
-        <v>-79794</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A46" s="2">
-        <v>44015</v>
+    </row>
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
+        <v>45139</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" t="s">
         <v>24</v>
       </c>
       <c r="E46" s="3"/>
@@ -2654,30 +2125,18 @@
       <c r="L46" s="3">
         <v>12</v>
       </c>
-      <c r="M46" s="3">
-        <v>-102023.33333333299</v>
-      </c>
-      <c r="N46" s="3">
-        <v>-93556.666666666701</v>
-      </c>
-      <c r="O46" s="3">
-        <v>-87016.166666666701</v>
-      </c>
-      <c r="P46" s="3">
-        <v>-81724.5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>45108</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
         <v>24</v>
       </c>
       <c r="E47" s="3"/>
@@ -2700,30 +2159,18 @@
       <c r="L47" s="3">
         <v>12</v>
       </c>
-      <c r="M47" s="5">
-        <v>-104433.33333333299</v>
-      </c>
-      <c r="N47" s="5">
-        <v>-95766.666666666701</v>
-      </c>
-      <c r="O47" s="5">
-        <v>-89071.666666666701</v>
-      </c>
-      <c r="P47" s="5">
-        <v>-83655</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>45109</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" t="s">
         <v>24</v>
       </c>
       <c r="E48" s="3"/>
@@ -2746,30 +2193,18 @@
       <c r="L48" s="3">
         <v>12</v>
       </c>
-      <c r="M48" s="3">
-        <v>-106843.33333333299</v>
-      </c>
-      <c r="N48" s="3">
-        <v>-97976.666666666701</v>
-      </c>
-      <c r="O48" s="3">
-        <v>-91127.166666666701</v>
-      </c>
-      <c r="P48" s="3">
-        <v>-85585.5</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49" s="2">
-        <v>44015</v>
+    </row>
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="6">
+        <v>45139</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" t="s">
         <v>24</v>
       </c>
       <c r="E49" s="3"/>
@@ -2792,30 +2227,18 @@
       <c r="L49" s="3">
         <v>12</v>
       </c>
-      <c r="M49" s="3">
-        <v>-109253.33333333299</v>
-      </c>
-      <c r="N49" s="3">
-        <v>-100186.66666666701</v>
-      </c>
-      <c r="O49" s="3">
-        <v>-93182.666666666701</v>
-      </c>
-      <c r="P49" s="3">
-        <v>-87516</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>45108</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" t="s">
         <v>24</v>
       </c>
       <c r="E50" s="3"/>
@@ -2838,30 +2261,18 @@
       <c r="L50" s="3">
         <v>12</v>
       </c>
-      <c r="M50" s="5">
-        <v>-111663.33333333299</v>
-      </c>
-      <c r="N50" s="5">
-        <v>-102396.66666666701</v>
-      </c>
-      <c r="O50" s="5">
-        <v>-95238.166666666701</v>
-      </c>
-      <c r="P50" s="5">
-        <v>-89446.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>45109</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" t="s">
         <v>24</v>
       </c>
       <c r="E51" s="3"/>
@@ -2884,30 +2295,18 @@
       <c r="L51" s="3">
         <v>12</v>
       </c>
-      <c r="M51" s="3">
-        <v>-114073.33333333299</v>
-      </c>
-      <c r="N51" s="3">
-        <v>-104606.66666666701</v>
-      </c>
-      <c r="O51" s="3">
-        <v>-97293.666666666701</v>
-      </c>
-      <c r="P51" s="3">
-        <v>-91377</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A52" s="2">
-        <v>44015</v>
+    </row>
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="6">
+        <v>45139</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" t="s">
         <v>24</v>
       </c>
       <c r="E52" s="3"/>
@@ -2930,30 +2329,18 @@
       <c r="L52" s="3">
         <v>12</v>
       </c>
-      <c r="M52" s="3">
-        <v>-116483.33333333299</v>
-      </c>
-      <c r="N52" s="3">
-        <v>-106816.66666666701</v>
-      </c>
-      <c r="O52" s="3">
-        <v>-99349.166666666701</v>
-      </c>
-      <c r="P52" s="3">
-        <v>-93307.5</v>
-      </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>45108</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
         <v>24</v>
       </c>
       <c r="E53" s="3"/>
@@ -2976,30 +2363,18 @@
       <c r="L53" s="3">
         <v>12</v>
       </c>
-      <c r="M53" s="5">
-        <v>-118893.33333333299</v>
-      </c>
-      <c r="N53" s="5">
-        <v>-109026.66666666701</v>
-      </c>
-      <c r="O53" s="5">
-        <v>-101404.66666666701</v>
-      </c>
-      <c r="P53" s="5">
-        <v>-95238</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>45109</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" t="s">
         <v>24</v>
       </c>
       <c r="E54" s="3"/>
@@ -3022,30 +2397,18 @@
       <c r="L54" s="3">
         <v>12</v>
       </c>
-      <c r="M54" s="3">
-        <v>-121303.33333333299</v>
-      </c>
-      <c r="N54" s="3">
-        <v>-111236.66666666701</v>
-      </c>
-      <c r="O54" s="3">
-        <v>-103460.16666666701</v>
-      </c>
-      <c r="P54" s="3">
-        <v>-97168.5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="2">
-        <v>44015</v>
+    </row>
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="6">
+        <v>45139</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D55" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" t="s">
         <v>24</v>
       </c>
       <c r="E55" s="3"/>
@@ -3068,30 +2431,18 @@
       <c r="L55" s="3">
         <v>12</v>
       </c>
-      <c r="M55" s="3">
-        <v>-123713.33333333299</v>
-      </c>
-      <c r="N55" s="3">
-        <v>-113446.66666666701</v>
-      </c>
-      <c r="O55" s="3">
-        <v>-105515.66666666701</v>
-      </c>
-      <c r="P55" s="3">
-        <v>-99099</v>
-      </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>45108</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D56" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" t="s">
         <v>24</v>
       </c>
       <c r="E56" s="3"/>
@@ -3114,30 +2465,18 @@
       <c r="L56" s="3">
         <v>12</v>
       </c>
-      <c r="M56" s="5">
-        <v>-126123.33333333299</v>
-      </c>
-      <c r="N56" s="5">
-        <v>-115656.66666666701</v>
-      </c>
-      <c r="O56" s="5">
-        <v>-107571.16666666701</v>
-      </c>
-      <c r="P56" s="5">
-        <v>-101029.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>45109</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" t="s">
         <v>24</v>
       </c>
       <c r="E57" s="3"/>
@@ -3160,30 +2499,18 @@
       <c r="L57" s="3">
         <v>12</v>
       </c>
-      <c r="M57" s="3">
-        <v>-128533.33333333299</v>
-      </c>
-      <c r="N57" s="3">
-        <v>-117866.66666666701</v>
-      </c>
-      <c r="O57" s="3">
-        <v>-109626.66666666701</v>
-      </c>
-      <c r="P57" s="3">
-        <v>-102960</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="2">
-        <v>44015</v>
+    </row>
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="6">
+        <v>45139</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" t="s">
         <v>24</v>
       </c>
       <c r="E58" s="3"/>
@@ -3206,30 +2533,18 @@
       <c r="L58" s="3">
         <v>12</v>
       </c>
-      <c r="M58" s="3">
-        <v>-130943.33333333299</v>
-      </c>
-      <c r="N58" s="3">
-        <v>-120076.66666666701</v>
-      </c>
-      <c r="O58" s="3">
-        <v>-111682.16666666701</v>
-      </c>
-      <c r="P58" s="3">
-        <v>-104890.5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>45108</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
         <v>24</v>
       </c>
       <c r="E59" s="3"/>
@@ -3252,30 +2567,18 @@
       <c r="L59" s="3">
         <v>12</v>
       </c>
-      <c r="M59" s="5">
-        <v>-133353.33333333299</v>
-      </c>
-      <c r="N59" s="5">
-        <v>-122286.66666666701</v>
-      </c>
-      <c r="O59" s="5">
-        <v>-113737.66666666701</v>
-      </c>
-      <c r="P59" s="5">
-        <v>-106821</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>45109</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" t="s">
         <v>24</v>
       </c>
       <c r="E60" s="3"/>
@@ -3298,30 +2601,18 @@
       <c r="L60" s="3">
         <v>12</v>
       </c>
-      <c r="M60" s="3">
-        <v>-135763.33333333299</v>
-      </c>
-      <c r="N60" s="3">
-        <v>-124496.66666666701</v>
-      </c>
-      <c r="O60" s="3">
-        <v>-115793.16666666701</v>
-      </c>
-      <c r="P60" s="3">
-        <v>-108751.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A61" s="2">
-        <v>44015</v>
+    </row>
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="6">
+        <v>45139</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D61" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" t="s">
         <v>24</v>
       </c>
       <c r="E61" s="3"/>
@@ -3344,30 +2635,18 @@
       <c r="L61" s="3">
         <v>12</v>
       </c>
-      <c r="M61" s="3">
-        <v>-138173.33333333299</v>
-      </c>
-      <c r="N61" s="3">
-        <v>-126706.66666666701</v>
-      </c>
-      <c r="O61" s="3">
-        <v>-117848.66666666701</v>
-      </c>
-      <c r="P61" s="3">
-        <v>-110682</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>45108</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" t="s">
         <v>24</v>
       </c>
       <c r="E62" s="3"/>
@@ -3390,30 +2669,18 @@
       <c r="L62" s="3">
         <v>12</v>
       </c>
-      <c r="M62" s="5">
-        <v>-140583.33333333299</v>
-      </c>
-      <c r="N62" s="5">
-        <v>-128916.66666666701</v>
-      </c>
-      <c r="O62" s="5">
-        <v>-119904.16666666701</v>
-      </c>
-      <c r="P62" s="5">
-        <v>-112612.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>45109</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D63" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" t="s">
         <v>24</v>
       </c>
       <c r="E63" s="3"/>
@@ -3436,30 +2703,18 @@
       <c r="L63" s="3">
         <v>12</v>
       </c>
-      <c r="M63" s="3">
-        <v>-142993.33333333299</v>
-      </c>
-      <c r="N63" s="3">
-        <v>-131126.66666666701</v>
-      </c>
-      <c r="O63" s="3">
-        <v>-121959.66666666701</v>
-      </c>
-      <c r="P63" s="3">
-        <v>-114543</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A64" s="2">
-        <v>44015</v>
+    </row>
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="6">
+        <v>45139</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D64" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
         <v>24</v>
       </c>
       <c r="E64" s="3"/>
@@ -3482,30 +2737,18 @@
       <c r="L64" s="3">
         <v>12</v>
       </c>
-      <c r="M64" s="3">
-        <v>-145403.33333333299</v>
-      </c>
-      <c r="N64" s="3">
-        <v>-133336.66666666701</v>
-      </c>
-      <c r="O64" s="3">
-        <v>-124015.16666666701</v>
-      </c>
-      <c r="P64" s="3">
-        <v>-116473.5</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>45108</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D65" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" t="s">
         <v>24</v>
       </c>
       <c r="E65" s="3"/>
@@ -3528,30 +2771,18 @@
       <c r="L65" s="3">
         <v>12</v>
       </c>
-      <c r="M65" s="5">
-        <v>-147813.33333333299</v>
-      </c>
-      <c r="N65" s="5">
-        <v>-135546.66666666701</v>
-      </c>
-      <c r="O65" s="5">
-        <v>-126070.66666666701</v>
-      </c>
-      <c r="P65" s="5">
-        <v>-118404</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>45109</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" t="s">
         <v>24</v>
       </c>
       <c r="E66" s="3"/>
@@ -3574,30 +2805,18 @@
       <c r="L66" s="3">
         <v>12</v>
       </c>
-      <c r="M66" s="3">
-        <v>-150223.33333333299</v>
-      </c>
-      <c r="N66" s="3">
-        <v>-137756.66666666701</v>
-      </c>
-      <c r="O66" s="3">
-        <v>-128126.16666666701</v>
-      </c>
-      <c r="P66" s="3">
-        <v>-120334.5</v>
-      </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A67" s="2">
-        <v>44015</v>
+    </row>
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="6">
+        <v>45139</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D67" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" t="s">
         <v>24</v>
       </c>
       <c r="E67" s="3"/>
@@ -3620,30 +2839,18 @@
       <c r="L67" s="3">
         <v>12</v>
       </c>
-      <c r="M67" s="3">
-        <v>-152633.33333333299</v>
-      </c>
-      <c r="N67" s="3">
-        <v>-139966.66666666701</v>
-      </c>
-      <c r="O67" s="3">
-        <v>-130181.66666666701</v>
-      </c>
-      <c r="P67" s="3">
-        <v>-122265</v>
-      </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>45108</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D68" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" t="s">
         <v>24</v>
       </c>
       <c r="E68" s="3"/>
@@ -3666,30 +2873,18 @@
       <c r="L68" s="3">
         <v>12</v>
       </c>
-      <c r="M68" s="5">
-        <v>-155043.33333333299</v>
-      </c>
-      <c r="N68" s="5">
-        <v>-142176.66666666701</v>
-      </c>
-      <c r="O68" s="5">
-        <v>-132237.16666666701</v>
-      </c>
-      <c r="P68" s="5">
-        <v>-124195.5</v>
-      </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>45109</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D69" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" t="s">
         <v>24</v>
       </c>
       <c r="E69" s="3"/>
@@ -3712,30 +2907,18 @@
       <c r="L69" s="3">
         <v>12</v>
       </c>
-      <c r="M69" s="3">
-        <v>-157453.33333333299</v>
-      </c>
-      <c r="N69" s="3">
-        <v>-144386.66666666701</v>
-      </c>
-      <c r="O69" s="3">
-        <v>-134292.66666666701</v>
-      </c>
-      <c r="P69" s="3">
-        <v>-126126</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A70" s="2">
-        <v>44015</v>
+    </row>
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="6">
+        <v>45139</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" t="s">
         <v>24</v>
       </c>
       <c r="E70" s="3"/>
@@ -3758,30 +2941,18 @@
       <c r="L70" s="3">
         <v>12</v>
       </c>
-      <c r="M70" s="3">
-        <v>-159863.33333333299</v>
-      </c>
-      <c r="N70" s="3">
-        <v>-146596.66666666701</v>
-      </c>
-      <c r="O70" s="3">
-        <v>-136348.16666666701</v>
-      </c>
-      <c r="P70" s="3">
-        <v>-128056.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>45108</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D71" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" t="s">
         <v>24</v>
       </c>
       <c r="E71" s="3"/>
@@ -3804,30 +2975,18 @@
       <c r="L71" s="3">
         <v>12</v>
       </c>
-      <c r="M71" s="5">
-        <v>-162273.33333333299</v>
-      </c>
-      <c r="N71" s="5">
-        <v>-148806.66666666701</v>
-      </c>
-      <c r="O71" s="5">
-        <v>-138403.66666666701</v>
-      </c>
-      <c r="P71" s="5">
-        <v>-129987</v>
-      </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>45109</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" t="s">
         <v>24</v>
       </c>
       <c r="E72" s="3"/>
@@ -3850,30 +3009,18 @@
       <c r="L72" s="3">
         <v>12</v>
       </c>
-      <c r="M72" s="3">
-        <v>-164683.33333333299</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-151016.66666666701</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-140459.16666666701</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-131917.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A73" s="2">
-        <v>44015</v>
+    </row>
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="6">
+        <v>45139</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D73" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" t="s">
         <v>24</v>
       </c>
       <c r="E73" s="3"/>
@@ -3896,31 +3043,19 @@
       <c r="L73" s="3">
         <v>12</v>
       </c>
-      <c r="M73" s="3">
-        <v>-167093.33333333299</v>
-      </c>
-      <c r="N73" s="3">
-        <v>-153226.66666666701</v>
-      </c>
-      <c r="O73" s="3">
-        <v>-142514.66666666701</v>
-      </c>
-      <c r="P73" s="3">
-        <v>-133848</v>
-      </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>45108</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="D74" t="s">
+        <v>22</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
@@ -3942,31 +3077,19 @@
       <c r="L74" s="3">
         <v>12</v>
       </c>
-      <c r="M74" s="5">
-        <v>-169503.33333333299</v>
-      </c>
-      <c r="N74" s="5">
-        <v>-155436.66666666701</v>
-      </c>
-      <c r="O74" s="5">
-        <v>-144570.16666666701</v>
-      </c>
-      <c r="P74" s="5">
-        <v>-135778.5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>45109</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="D75" t="s">
+        <v>22</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
@@ -3988,31 +3111,19 @@
       <c r="L75" s="3">
         <v>12</v>
       </c>
-      <c r="M75" s="3">
-        <v>-171913.33333333299</v>
-      </c>
-      <c r="N75" s="3">
-        <v>-157646.66666666701</v>
-      </c>
-      <c r="O75" s="3">
-        <v>-146625.66666666701</v>
-      </c>
-      <c r="P75" s="3">
-        <v>-137709</v>
-      </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A76" s="2">
-        <v>44015</v>
+    </row>
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="6">
+        <v>45139</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="D76" t="s">
+        <v>22</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -4034,31 +3145,19 @@
       <c r="L76" s="3">
         <v>12</v>
       </c>
-      <c r="M76" s="3">
-        <v>-174323.33333333299</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-159856.66666666701</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-148681.16666666701</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-139639.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>45108</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="D77" t="s">
+        <v>22</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -4080,31 +3179,19 @@
       <c r="L77" s="3">
         <v>12</v>
       </c>
-      <c r="M77" s="5">
-        <v>-176733.33333333299</v>
-      </c>
-      <c r="N77" s="5">
-        <v>-162066.66666666701</v>
-      </c>
-      <c r="O77" s="5">
-        <v>-150736.66666666701</v>
-      </c>
-      <c r="P77" s="5">
-        <v>-141570</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>45109</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="D78" t="s">
+        <v>22</v>
       </c>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -4126,31 +3213,19 @@
       <c r="L78" s="3">
         <v>12</v>
       </c>
-      <c r="M78" s="3">
-        <v>-179143.33333333299</v>
-      </c>
-      <c r="N78" s="3">
-        <v>-164276.66666666701</v>
-      </c>
-      <c r="O78" s="3">
-        <v>-152792.16666666701</v>
-      </c>
-      <c r="P78" s="3">
-        <v>-143500.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A79" s="2">
-        <v>44015</v>
+    </row>
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="6">
+        <v>45139</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
+        <v>22</v>
       </c>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
@@ -4172,31 +3247,19 @@
       <c r="L79" s="3">
         <v>12</v>
       </c>
-      <c r="M79" s="3">
-        <v>-181553.33333333299</v>
-      </c>
-      <c r="N79" s="3">
-        <v>-166486.66666666701</v>
-      </c>
-      <c r="O79" s="3">
-        <v>-154847.66666666701</v>
-      </c>
-      <c r="P79" s="3">
-        <v>-145431</v>
-      </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>45108</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="D80" t="s">
+        <v>22</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
@@ -4218,31 +3281,19 @@
       <c r="L80" s="3">
         <v>12</v>
       </c>
-      <c r="M80" s="5">
-        <v>-183963.33333333299</v>
-      </c>
-      <c r="N80" s="5">
-        <v>-168696.66666666701</v>
-      </c>
-      <c r="O80" s="5">
-        <v>-156903.16666666701</v>
-      </c>
-      <c r="P80" s="5">
-        <v>-147361.5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>45109</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="D81" t="s">
+        <v>22</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -4264,31 +3315,19 @@
       <c r="L81" s="3">
         <v>12</v>
       </c>
-      <c r="M81" s="3">
-        <v>-186373.33333333299</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-170906.66666666701</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-158958.66666666701</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-149292</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A82" s="2">
-        <v>44015</v>
+    </row>
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="6">
+        <v>45139</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="D82" t="s">
+        <v>22</v>
       </c>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
@@ -4310,31 +3349,19 @@
       <c r="L82" s="3">
         <v>12</v>
       </c>
-      <c r="M82" s="3">
-        <v>-188783.33333333299</v>
-      </c>
-      <c r="N82" s="3">
-        <v>-173116.66666666701</v>
-      </c>
-      <c r="O82" s="3">
-        <v>-161014.16666666701</v>
-      </c>
-      <c r="P82" s="3">
-        <v>-151222.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>45108</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="D83" t="s">
+        <v>22</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
@@ -4356,31 +3383,19 @@
       <c r="L83" s="3">
         <v>12</v>
       </c>
-      <c r="M83" s="5">
-        <v>-191193.33333333299</v>
-      </c>
-      <c r="N83" s="5">
-        <v>-175326.66666666701</v>
-      </c>
-      <c r="O83" s="5">
-        <v>-163069.66666666701</v>
-      </c>
-      <c r="P83" s="5">
-        <v>-153153</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>45109</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="D84" t="s">
+        <v>22</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
@@ -4402,31 +3417,19 @@
       <c r="L84" s="3">
         <v>12</v>
       </c>
-      <c r="M84" s="3">
-        <v>-193603.33333333299</v>
-      </c>
-      <c r="N84" s="3">
-        <v>-177536.66666666701</v>
-      </c>
-      <c r="O84" s="3">
-        <v>-165125.16666666701</v>
-      </c>
-      <c r="P84" s="3">
-        <v>-155083.5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A85" s="2">
-        <v>44015</v>
+    </row>
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="6">
+        <v>45139</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
+        <v>22</v>
       </c>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
@@ -4448,31 +3451,19 @@
       <c r="L85" s="3">
         <v>12</v>
       </c>
-      <c r="M85" s="3">
-        <v>-196013.33333333299</v>
-      </c>
-      <c r="N85" s="3">
-        <v>-179746.66666666701</v>
-      </c>
-      <c r="O85" s="3">
-        <v>-167180.66666666701</v>
-      </c>
-      <c r="P85" s="3">
-        <v>-157014</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>45108</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="D86" t="s">
+        <v>22</v>
       </c>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
@@ -4494,31 +3485,19 @@
       <c r="L86" s="3">
         <v>12</v>
       </c>
-      <c r="M86" s="5">
-        <v>-198423.33333333299</v>
-      </c>
-      <c r="N86" s="5">
-        <v>-181956.66666666701</v>
-      </c>
-      <c r="O86" s="5">
-        <v>-169236.16666666701</v>
-      </c>
-      <c r="P86" s="5">
-        <v>-158944.5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>45109</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="D87" t="s">
+        <v>22</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
@@ -4540,31 +3519,19 @@
       <c r="L87" s="3">
         <v>12</v>
       </c>
-      <c r="M87" s="3">
-        <v>-200833.33333333299</v>
-      </c>
-      <c r="N87" s="3">
-        <v>-184166.66666666701</v>
-      </c>
-      <c r="O87" s="3">
-        <v>-171291.66666666701</v>
-      </c>
-      <c r="P87" s="3">
-        <v>-160875</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A88" s="2">
-        <v>44015</v>
+    </row>
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="6">
+        <v>45139</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="D88" t="s">
+        <v>22</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
@@ -4586,31 +3553,19 @@
       <c r="L88" s="3">
         <v>12</v>
       </c>
-      <c r="M88" s="3">
-        <v>-203243.33333333299</v>
-      </c>
-      <c r="N88" s="3">
-        <v>-186376.66666666701</v>
-      </c>
-      <c r="O88" s="3">
-        <v>-173347.16666666701</v>
-      </c>
-      <c r="P88" s="3">
-        <v>-162805.5</v>
-      </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>45108</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="D89" t="s">
+        <v>22</v>
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
@@ -4632,31 +3587,19 @@
       <c r="L89" s="3">
         <v>12</v>
       </c>
-      <c r="M89" s="5">
-        <v>-205653.33333333299</v>
-      </c>
-      <c r="N89" s="5">
-        <v>-188586.66666666701</v>
-      </c>
-      <c r="O89" s="5">
-        <v>-175402.66666666701</v>
-      </c>
-      <c r="P89" s="5">
-        <v>-164736</v>
-      </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>45109</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="D90" t="s">
+        <v>22</v>
       </c>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
@@ -4678,31 +3621,19 @@
       <c r="L90" s="3">
         <v>12</v>
       </c>
-      <c r="M90" s="3">
-        <v>-208063.33333333299</v>
-      </c>
-      <c r="N90" s="3">
-        <v>-190796.66666666701</v>
-      </c>
-      <c r="O90" s="3">
-        <v>-177458.16666666701</v>
-      </c>
-      <c r="P90" s="3">
-        <v>-166666.5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A91" s="2">
-        <v>44015</v>
+    </row>
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="6">
+        <v>45139</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="D91" t="s">
+        <v>22</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
@@ -4724,31 +3655,19 @@
       <c r="L91" s="3">
         <v>12</v>
       </c>
-      <c r="M91" s="3">
-        <v>-210473.33333333299</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-193006.66666666701</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-179513.66666666701</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-168597</v>
-      </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>45108</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="D92" t="s">
+        <v>22</v>
       </c>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
@@ -4770,31 +3689,19 @@
       <c r="L92" s="3">
         <v>12</v>
       </c>
-      <c r="M92" s="5">
-        <v>-212883.33333333299</v>
-      </c>
-      <c r="N92" s="5">
-        <v>-195216.66666666701</v>
-      </c>
-      <c r="O92" s="5">
-        <v>-181569.16666666701</v>
-      </c>
-      <c r="P92" s="5">
-        <v>-170527.5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>45109</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="D93" t="s">
+        <v>22</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
@@ -4816,31 +3723,19 @@
       <c r="L93" s="3">
         <v>12</v>
       </c>
-      <c r="M93" s="3">
-        <v>-215293.33333333299</v>
-      </c>
-      <c r="N93" s="3">
-        <v>-197426.66666666701</v>
-      </c>
-      <c r="O93" s="3">
-        <v>-183624.66666666701</v>
-      </c>
-      <c r="P93" s="3">
-        <v>-172458</v>
-      </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A94" s="2">
-        <v>44015</v>
+    </row>
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="6">
+        <v>45139</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="D94" t="s">
+        <v>22</v>
       </c>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
@@ -4862,31 +3757,19 @@
       <c r="L94" s="3">
         <v>12</v>
       </c>
-      <c r="M94" s="3">
-        <v>-217703.33333333299</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-199636.66666666701</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-185680.16666666701</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-174388.5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>45108</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>26</v>
+        <v>5</v>
+      </c>
+      <c r="D95" t="s">
+        <v>22</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
@@ -4908,34 +3791,27 @@
       <c r="L95" s="3">
         <v>12</v>
       </c>
-      <c r="M95" s="5">
-        <v>-220113.33333333299</v>
-      </c>
-      <c r="N95" s="5">
-        <v>-201846.66666666701</v>
-      </c>
-      <c r="O95" s="5">
-        <v>-187735.66666666701</v>
-      </c>
-      <c r="P95" s="5">
-        <v>-176319</v>
-      </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
-        <v>45109</v>
+        <f ca="1">TODAY() - RANDBETWEEN(15,50)</f>
+        <v>45151</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D96" t="s">
+        <v>25</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G96" s="4">
         <v>14241.6133333333</v>
       </c>
@@ -4954,34 +3830,27 @@
       <c r="L96" s="3">
         <v>12</v>
       </c>
-      <c r="M96" s="3">
-        <v>-222523.33333333299</v>
-      </c>
-      <c r="N96" s="3">
-        <v>-204056.66666666701</v>
-      </c>
-      <c r="O96" s="3">
-        <v>-189791.16666666701</v>
-      </c>
-      <c r="P96" s="3">
-        <v>-178249.5</v>
-      </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
-        <v>44015</v>
+        <f t="shared" ref="A97:A153" ca="1" si="0">TODAY() - RANDBETWEEN(15,50)</f>
+        <v>45137</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E97" s="3"/>
-      <c r="F97" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D97" t="s">
+        <v>25</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="G97" s="4">
         <v>14391.8533333333</v>
       </c>
@@ -5000,34 +3869,27 @@
       <c r="L97" s="3">
         <v>12</v>
       </c>
-      <c r="M97" s="3">
-        <v>-224933.33333333299</v>
-      </c>
-      <c r="N97" s="3">
-        <v>-206266.66666666701</v>
-      </c>
-      <c r="O97" s="3">
-        <v>-191846.66666666701</v>
-      </c>
-      <c r="P97" s="3">
-        <v>-180180</v>
-      </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
-        <v>45108</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45164</v>
       </c>
       <c r="B98" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" t="s">
+        <v>25</v>
+      </c>
+      <c r="E98" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C98" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
+      <c r="F98" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G98" s="4">
         <v>14542.0933333333</v>
       </c>
@@ -5046,34 +3908,27 @@
       <c r="L98" s="3">
         <v>12</v>
       </c>
-      <c r="M98" s="5">
-        <v>-227343.33333333299</v>
-      </c>
-      <c r="N98" s="5">
-        <v>-208476.66666666701</v>
-      </c>
-      <c r="O98" s="5">
-        <v>-193902.16666666701</v>
-      </c>
-      <c r="P98" s="5">
-        <v>-182110.5</v>
-      </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
-        <v>45109</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45132</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D99" t="s">
+        <v>25</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G99" s="4">
         <v>14692.333333333299</v>
       </c>
@@ -5092,34 +3947,27 @@
       <c r="L99" s="3">
         <v>12</v>
       </c>
-      <c r="M99" s="3">
-        <v>-229753.33333333299</v>
-      </c>
-      <c r="N99" s="3">
-        <v>-210686.66666666701</v>
-      </c>
-      <c r="O99" s="3">
-        <v>-195957.66666666701</v>
-      </c>
-      <c r="P99" s="3">
-        <v>-184041</v>
-      </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
-        <v>44015</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45140</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D100" t="s">
+        <v>25</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="G100" s="4">
         <v>14842.573333333299</v>
       </c>
@@ -5138,34 +3986,27 @@
       <c r="L100" s="3">
         <v>12</v>
       </c>
-      <c r="M100" s="3">
-        <v>-232163.33333333299</v>
-      </c>
-      <c r="N100" s="3">
-        <v>-212896.66666666701</v>
-      </c>
-      <c r="O100" s="3">
-        <v>-198013.16666666701</v>
-      </c>
-      <c r="P100" s="3">
-        <v>-185971.5</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
-        <v>45108</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45131</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" t="s">
+        <v>25</v>
+      </c>
+      <c r="E101" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
+      <c r="F101" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G101" s="4">
         <v>14992.813333333301</v>
       </c>
@@ -5184,34 +4025,27 @@
       <c r="L101" s="3">
         <v>12</v>
       </c>
-      <c r="M101" s="5">
-        <v>-234573.33333333299</v>
-      </c>
-      <c r="N101" s="5">
-        <v>-215106.66666666701</v>
-      </c>
-      <c r="O101" s="5">
-        <v>-200068.66666666701</v>
-      </c>
-      <c r="P101" s="5">
-        <v>-187902</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
-        <v>45109</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45145</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E102" s="3"/>
-      <c r="F102" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D102" t="s">
+        <v>25</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G102" s="4">
         <v>15143.053333333301</v>
       </c>
@@ -5230,34 +4064,27 @@
       <c r="L102" s="3">
         <v>12</v>
       </c>
-      <c r="M102" s="3">
-        <v>-236983.33333333299</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-217316.66666666701</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-202124.16666666701</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-189832.5</v>
-      </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
-        <v>44015</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45141</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E103" s="3"/>
-      <c r="F103" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D103" t="s">
+        <v>25</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="G103" s="4">
         <v>15293.2933333333</v>
       </c>
@@ -5276,34 +4103,27 @@
       <c r="L103" s="3">
         <v>12</v>
       </c>
-      <c r="M103" s="3">
-        <v>-239393.33333333299</v>
-      </c>
-      <c r="N103" s="3">
-        <v>-219526.66666666701</v>
-      </c>
-      <c r="O103" s="3">
-        <v>-204179.66666666701</v>
-      </c>
-      <c r="P103" s="3">
-        <v>-191763</v>
-      </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
-        <v>45108</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45134</v>
       </c>
       <c r="B104" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D104" t="s">
+        <v>25</v>
+      </c>
+      <c r="E104" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C104" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E104" s="3"/>
-      <c r="F104" s="3"/>
+      <c r="F104" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G104" s="4">
         <v>15443.5333333333</v>
       </c>
@@ -5322,34 +4142,27 @@
       <c r="L104" s="3">
         <v>12</v>
       </c>
-      <c r="M104" s="5">
-        <v>-241803.33333333299</v>
-      </c>
-      <c r="N104" s="5">
-        <v>-221736.66666666701</v>
-      </c>
-      <c r="O104" s="5">
-        <v>-206235.16666666701</v>
-      </c>
-      <c r="P104" s="5">
-        <v>-193693.5</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
-        <v>45109</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45151</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E105" s="3"/>
-      <c r="F105" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D105" t="s">
+        <v>25</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G105" s="4">
         <v>15593.7733333333</v>
       </c>
@@ -5368,34 +4181,27 @@
       <c r="L105" s="3">
         <v>12</v>
       </c>
-      <c r="M105" s="3">
-        <v>-244213.33333333299</v>
-      </c>
-      <c r="N105" s="3">
-        <v>-223946.66666666701</v>
-      </c>
-      <c r="O105" s="3">
-        <v>-208290.66666666701</v>
-      </c>
-      <c r="P105" s="3">
-        <v>-195624</v>
-      </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
-        <v>44015</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45164</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E106" s="3"/>
-      <c r="F106" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D106" t="s">
+        <v>25</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="G106" s="4">
         <v>15744.0133333333</v>
       </c>
@@ -5414,34 +4220,27 @@
       <c r="L106" s="3">
         <v>12</v>
       </c>
-      <c r="M106" s="3">
-        <v>-246623.33333333299</v>
-      </c>
-      <c r="N106" s="3">
-        <v>-226156.66666666701</v>
-      </c>
-      <c r="O106" s="3">
-        <v>-210346.16666666701</v>
-      </c>
-      <c r="P106" s="3">
-        <v>-197554.5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
-        <v>45108</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45142</v>
       </c>
       <c r="B107" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" t="s">
+        <v>25</v>
+      </c>
+      <c r="E107" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C107" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E107" s="3"/>
-      <c r="F107" s="3"/>
+      <c r="F107" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G107" s="4">
         <v>15894.253333333299</v>
       </c>
@@ -5460,34 +4259,27 @@
       <c r="L107" s="3">
         <v>12</v>
       </c>
-      <c r="M107" s="5">
-        <v>-249033.33333333299</v>
-      </c>
-      <c r="N107" s="5">
-        <v>-228366.66666666701</v>
-      </c>
-      <c r="O107" s="5">
-        <v>-212401.66666666701</v>
-      </c>
-      <c r="P107" s="5">
-        <v>-199485</v>
-      </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
-        <v>45109</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45146</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E108" s="3"/>
-      <c r="F108" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D108" t="s">
+        <v>25</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G108" s="4">
         <v>16044.493333333299</v>
       </c>
@@ -5506,34 +4298,27 @@
       <c r="L108" s="3">
         <v>12</v>
       </c>
-      <c r="M108" s="3">
-        <v>-251443.33333333299</v>
-      </c>
-      <c r="N108" s="3">
-        <v>-230576.66666666701</v>
-      </c>
-      <c r="O108" s="3">
-        <v>-214457.16666666701</v>
-      </c>
-      <c r="P108" s="3">
-        <v>-201415.5</v>
-      </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
-        <v>44015</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45147</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E109" s="3"/>
-      <c r="F109" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D109" t="s">
+        <v>25</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="G109" s="4">
         <v>16194.733333333301</v>
       </c>
@@ -5552,34 +4337,27 @@
       <c r="L109" s="3">
         <v>12</v>
       </c>
-      <c r="M109" s="3">
-        <v>-253853.33333333299</v>
-      </c>
-      <c r="N109" s="3">
-        <v>-232786.66666666701</v>
-      </c>
-      <c r="O109" s="3">
-        <v>-216512.66666666701</v>
-      </c>
-      <c r="P109" s="3">
-        <v>-203346</v>
-      </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
-        <v>45108</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45133</v>
       </c>
       <c r="B110" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" t="s">
+        <v>25</v>
+      </c>
+      <c r="E110" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C110" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E110" s="3"/>
-      <c r="F110" s="3"/>
+      <c r="F110" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G110" s="4">
         <v>16344.973333333301</v>
       </c>
@@ -5598,34 +4376,27 @@
       <c r="L110" s="3">
         <v>12</v>
       </c>
-      <c r="M110" s="5">
-        <v>-256263.33333333299</v>
-      </c>
-      <c r="N110" s="5">
-        <v>-234996.66666666701</v>
-      </c>
-      <c r="O110" s="5">
-        <v>-218568.16666666701</v>
-      </c>
-      <c r="P110" s="5">
-        <v>-205276.5</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
-        <v>45109</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45162</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E111" s="3"/>
-      <c r="F111" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D111" t="s">
+        <v>25</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G111" s="4">
         <v>16495.2133333333</v>
       </c>
@@ -5644,34 +4415,27 @@
       <c r="L111" s="3">
         <v>12</v>
       </c>
-      <c r="M111" s="3">
-        <v>-258673.33333333299</v>
-      </c>
-      <c r="N111" s="3">
-        <v>-237206.66666666701</v>
-      </c>
-      <c r="O111" s="3">
-        <v>-220623.66666666701</v>
-      </c>
-      <c r="P111" s="3">
-        <v>-207207</v>
-      </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
-        <v>44015</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45136</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E112" s="3"/>
-      <c r="F112" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D112" t="s">
+        <v>25</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="G112" s="4">
         <v>16645.453333333298</v>
       </c>
@@ -5690,34 +4454,27 @@
       <c r="L112" s="3">
         <v>12</v>
       </c>
-      <c r="M112" s="3">
-        <v>-261083.33333333299</v>
-      </c>
-      <c r="N112" s="3">
-        <v>-239416.66666666701</v>
-      </c>
-      <c r="O112" s="3">
-        <v>-222679.16666666701</v>
-      </c>
-      <c r="P112" s="3">
-        <v>-209137.5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
-        <v>45108</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45132</v>
       </c>
       <c r="B113" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" t="s">
+        <v>25</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F113" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C113" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E113" s="3"/>
-      <c r="F113" s="3"/>
       <c r="G113" s="4">
         <v>16795.6933333333</v>
       </c>
@@ -5736,34 +4493,27 @@
       <c r="L113" s="3">
         <v>12</v>
       </c>
-      <c r="M113" s="5">
-        <v>-263493.33333333302</v>
-      </c>
-      <c r="N113" s="5">
-        <v>-241626.66666666701</v>
-      </c>
-      <c r="O113" s="5">
-        <v>-224734.66666666701</v>
-      </c>
-      <c r="P113" s="5">
-        <v>-211068</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
-        <v>45109</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45154</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E114" s="3"/>
-      <c r="F114" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D114" t="s">
+        <v>25</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G114" s="4">
         <v>16945.933333333302</v>
       </c>
@@ -5782,34 +4532,27 @@
       <c r="L114" s="3">
         <v>12</v>
       </c>
-      <c r="M114" s="3">
-        <v>-265903.33333333302</v>
-      </c>
-      <c r="N114" s="3">
-        <v>-243836.66666666701</v>
-      </c>
-      <c r="O114" s="3">
-        <v>-226790.16666666701</v>
-      </c>
-      <c r="P114" s="3">
-        <v>-212998.5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
-        <v>44015</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45158</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E115" s="3"/>
-      <c r="F115" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D115" t="s">
+        <v>25</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="G115" s="4">
         <v>17096.1733333333</v>
       </c>
@@ -5828,34 +4571,27 @@
       <c r="L115" s="3">
         <v>12</v>
       </c>
-      <c r="M115" s="3">
-        <v>-268313.33333333302</v>
-      </c>
-      <c r="N115" s="3">
-        <v>-246046.66666666701</v>
-      </c>
-      <c r="O115" s="3">
-        <v>-228845.66666666701</v>
-      </c>
-      <c r="P115" s="3">
-        <v>-214929</v>
-      </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
-        <v>45108</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45162</v>
       </c>
       <c r="B116" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D116" t="s">
+        <v>25</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F116" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C116" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E116" s="3"/>
-      <c r="F116" s="3"/>
       <c r="G116" s="4">
         <v>17246.413333333301</v>
       </c>
@@ -5874,34 +4610,27 @@
       <c r="L116" s="3">
         <v>12</v>
       </c>
-      <c r="M116" s="5">
-        <v>-270723.33333333302</v>
-      </c>
-      <c r="N116" s="5">
-        <v>-248256.66666666701</v>
-      </c>
-      <c r="O116" s="5">
-        <v>-230901.16666666701</v>
-      </c>
-      <c r="P116" s="5">
-        <v>-216859.5</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
-        <v>45109</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45162</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D117" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D117" t="s">
+        <v>25</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G117" s="4">
         <v>17396.653333333299</v>
       </c>
@@ -5920,34 +4649,27 @@
       <c r="L117" s="3">
         <v>12</v>
       </c>
-      <c r="M117" s="3">
-        <v>-273133.33333333302</v>
-      </c>
-      <c r="N117" s="3">
-        <v>-250466.66666666701</v>
-      </c>
-      <c r="O117" s="3">
-        <v>-232956.66666666701</v>
-      </c>
-      <c r="P117" s="3">
-        <v>-218790</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
-        <v>44015</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45158</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E118" s="3"/>
-      <c r="F118" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D118" t="s">
+        <v>25</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="G118" s="4">
         <v>17546.893333333301</v>
       </c>
@@ -5966,34 +4688,27 @@
       <c r="L118" s="3">
         <v>12</v>
       </c>
-      <c r="M118" s="3">
-        <v>-275543.33333333302</v>
-      </c>
-      <c r="N118" s="3">
-        <v>-252676.66666666701</v>
-      </c>
-      <c r="O118" s="3">
-        <v>-235012.16666666701</v>
-      </c>
-      <c r="P118" s="3">
-        <v>-220720.5</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
-        <v>45108</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45136</v>
       </c>
       <c r="B119" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D119" t="s">
+        <v>25</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F119" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C119" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
       <c r="G119" s="4">
         <v>17697.133333333299</v>
       </c>
@@ -6012,34 +4727,27 @@
       <c r="L119" s="3">
         <v>12</v>
       </c>
-      <c r="M119" s="5">
-        <v>-277953.33333333302</v>
-      </c>
-      <c r="N119" s="5">
-        <v>-254886.66666666701</v>
-      </c>
-      <c r="O119" s="5">
-        <v>-237067.66666666701</v>
-      </c>
-      <c r="P119" s="5">
-        <v>-222651</v>
-      </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
-        <v>45109</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45150</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D120" t="s">
+        <v>25</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G120" s="4">
         <v>17847.3733333333</v>
       </c>
@@ -6058,34 +4766,27 @@
       <c r="L120" s="3">
         <v>12</v>
       </c>
-      <c r="M120" s="3">
-        <v>-280363.33333333302</v>
-      </c>
-      <c r="N120" s="3">
-        <v>-257096.66666666701</v>
-      </c>
-      <c r="O120" s="3">
-        <v>-239123.16666666701</v>
-      </c>
-      <c r="P120" s="3">
-        <v>-224581.5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
-        <v>44015</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45141</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D121" t="s">
+        <v>25</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="G121" s="4">
         <v>17997.613333333298</v>
       </c>
@@ -6104,34 +4805,27 @@
       <c r="L121" s="3">
         <v>12</v>
       </c>
-      <c r="M121" s="3">
-        <v>-282773.33333333302</v>
-      </c>
-      <c r="N121" s="3">
-        <v>-259306.66666666701</v>
-      </c>
-      <c r="O121" s="3">
-        <v>-241178.66666666701</v>
-      </c>
-      <c r="P121" s="3">
-        <v>-226512</v>
-      </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
-        <v>45108</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45147</v>
       </c>
       <c r="B122" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D122" t="s">
+        <v>25</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F122" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C122" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D122" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
       <c r="G122" s="4">
         <v>18147.8533333333</v>
       </c>
@@ -6150,34 +4844,27 @@
       <c r="L122" s="3">
         <v>12</v>
       </c>
-      <c r="M122" s="5">
-        <v>-285183.33333333302</v>
-      </c>
-      <c r="N122" s="5">
-        <v>-261516.66666666701</v>
-      </c>
-      <c r="O122" s="5">
-        <v>-243234.16666666701</v>
-      </c>
-      <c r="P122" s="5">
-        <v>-228442.5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
-        <v>45109</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45131</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D123" t="s">
+        <v>25</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G123" s="4">
         <v>18298.093333333301</v>
       </c>
@@ -6196,34 +4883,27 @@
       <c r="L123" s="3">
         <v>12</v>
       </c>
-      <c r="M123" s="3">
-        <v>-287593.33333333302</v>
-      </c>
-      <c r="N123" s="3">
-        <v>-263726.66666666698</v>
-      </c>
-      <c r="O123" s="3">
-        <v>-245289.66666666701</v>
-      </c>
-      <c r="P123" s="3">
-        <v>-230373</v>
-      </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
-        <v>44015</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45130</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D124" t="s">
+        <v>25</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="G124" s="4">
         <v>18448.333333333299</v>
       </c>
@@ -6242,34 +4922,27 @@
       <c r="L124" s="3">
         <v>12</v>
       </c>
-      <c r="M124" s="3">
-        <v>-290003.33333333302</v>
-      </c>
-      <c r="N124" s="3">
-        <v>-265936.66666666698</v>
-      </c>
-      <c r="O124" s="3">
-        <v>-247345.16666666701</v>
-      </c>
-      <c r="P124" s="3">
-        <v>-232303.5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
-        <v>45108</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45163</v>
       </c>
       <c r="B125" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D125" t="s">
+        <v>25</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F125" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C125" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
       <c r="G125" s="4">
         <v>18598.573333333301</v>
       </c>
@@ -6288,34 +4961,27 @@
       <c r="L125" s="3">
         <v>12</v>
       </c>
-      <c r="M125" s="5">
-        <v>-292413.33333333302</v>
-      </c>
-      <c r="N125" s="5">
-        <v>-268146.66666666698</v>
-      </c>
-      <c r="O125" s="5">
-        <v>-249400.66666666701</v>
-      </c>
-      <c r="P125" s="5">
-        <v>-234234</v>
-      </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
-        <v>45109</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45130</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D126" t="s">
+        <v>25</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G126" s="4">
         <v>18748.813333333299</v>
       </c>
@@ -6334,34 +5000,27 @@
       <c r="L126" s="3">
         <v>12</v>
       </c>
-      <c r="M126" s="3">
-        <v>-294823.33333333302</v>
-      </c>
-      <c r="N126" s="3">
-        <v>-270356.66666666698</v>
-      </c>
-      <c r="O126" s="3">
-        <v>-251456.16666666701</v>
-      </c>
-      <c r="P126" s="3">
-        <v>-236164.5</v>
-      </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
-        <v>44015</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45154</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D127" t="s">
+        <v>25</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="G127" s="4">
         <v>18899.053333333301</v>
       </c>
@@ -6380,34 +5039,27 @@
       <c r="L127" s="3">
         <v>12</v>
       </c>
-      <c r="M127" s="3">
-        <v>-297233.33333333302</v>
-      </c>
-      <c r="N127" s="3">
-        <v>-272566.66666666698</v>
-      </c>
-      <c r="O127" s="3">
-        <v>-253511.66666666701</v>
-      </c>
-      <c r="P127" s="3">
-        <v>-238095</v>
-      </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
-        <v>45108</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45142</v>
       </c>
       <c r="B128" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D128" t="s">
+        <v>25</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F128" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C128" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
       <c r="G128" s="4">
         <v>19049.293333333299</v>
       </c>
@@ -6426,34 +5078,27 @@
       <c r="L128" s="3">
         <v>12</v>
       </c>
-      <c r="M128" s="5">
-        <v>-299643.33333333302</v>
-      </c>
-      <c r="N128" s="5">
-        <v>-274776.66666666698</v>
-      </c>
-      <c r="O128" s="5">
-        <v>-255567.16666666701</v>
-      </c>
-      <c r="P128" s="5">
-        <v>-240025.5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
-        <v>45109</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45163</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D129" t="s">
+        <v>25</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G129" s="4">
         <v>19199.5333333333</v>
       </c>
@@ -6472,34 +5117,27 @@
       <c r="L129" s="3">
         <v>12</v>
       </c>
-      <c r="M129" s="3">
-        <v>-302053.33333333302</v>
-      </c>
-      <c r="N129" s="3">
-        <v>-276986.66666666698</v>
-      </c>
-      <c r="O129" s="3">
-        <v>-257622.66666666701</v>
-      </c>
-      <c r="P129" s="3">
-        <v>-241956</v>
-      </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
-        <v>44015</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45156</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D130" t="s">
+        <v>25</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="G130" s="4">
         <v>19349.773333333302</v>
       </c>
@@ -6518,34 +5156,27 @@
       <c r="L130" s="3">
         <v>12</v>
       </c>
-      <c r="M130" s="3">
-        <v>-304463.33333333302</v>
-      </c>
-      <c r="N130" s="3">
-        <v>-279196.66666666698</v>
-      </c>
-      <c r="O130" s="3">
-        <v>-259678.16666666701</v>
-      </c>
-      <c r="P130" s="3">
-        <v>-243886.5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
-        <v>45108</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45162</v>
       </c>
       <c r="B131" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D131" t="s">
+        <v>25</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F131" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C131" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
       <c r="G131" s="4">
         <v>19500.0133333333</v>
       </c>
@@ -6564,34 +5195,27 @@
       <c r="L131" s="3">
         <v>12</v>
       </c>
-      <c r="M131" s="5">
-        <v>-306873.33333333302</v>
-      </c>
-      <c r="N131" s="5">
-        <v>-281406.66666666698</v>
-      </c>
-      <c r="O131" s="5">
-        <v>-261733.66666666701</v>
-      </c>
-      <c r="P131" s="5">
-        <v>-245817</v>
-      </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
-        <v>45109</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45150</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D132" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D132" t="s">
+        <v>25</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G132" s="4">
         <v>19650.253333333301</v>
       </c>
@@ -6610,34 +5234,27 @@
       <c r="L132" s="3">
         <v>12</v>
       </c>
-      <c r="M132" s="3">
-        <v>-309283.33333333302</v>
-      </c>
-      <c r="N132" s="3">
-        <v>-283616.66666666698</v>
-      </c>
-      <c r="O132" s="3">
-        <v>-263789.16666666698</v>
-      </c>
-      <c r="P132" s="3">
-        <v>-247747.5</v>
-      </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
-        <v>44015</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45146</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D133" t="s">
+        <v>25</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="G133" s="4">
         <v>19800.493333333299</v>
       </c>
@@ -6656,34 +5273,27 @@
       <c r="L133" s="3">
         <v>12</v>
       </c>
-      <c r="M133" s="3">
-        <v>-311693.33333333302</v>
-      </c>
-      <c r="N133" s="3">
-        <v>-285826.66666666698</v>
-      </c>
-      <c r="O133" s="3">
-        <v>-265844.66666666698</v>
-      </c>
-      <c r="P133" s="3">
-        <v>-249678</v>
-      </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
-        <v>45108</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45163</v>
       </c>
       <c r="B134" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" t="s">
+        <v>25</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F134" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C134" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D134" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
       <c r="G134" s="4">
         <v>19950.733333333301</v>
       </c>
@@ -6702,34 +5312,27 @@
       <c r="L134" s="3">
         <v>12</v>
       </c>
-      <c r="M134" s="5">
-        <v>-314103.33333333302</v>
-      </c>
-      <c r="N134" s="5">
-        <v>-288036.66666666698</v>
-      </c>
-      <c r="O134" s="5">
-        <v>-267900.16666666698</v>
-      </c>
-      <c r="P134" s="5">
-        <v>-251608.5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
-        <v>45109</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45154</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D135" t="s">
+        <v>25</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G135" s="4">
         <v>20100.973333333299</v>
       </c>
@@ -6748,34 +5351,27 @@
       <c r="L135" s="3">
         <v>12</v>
       </c>
-      <c r="M135" s="3">
-        <v>-316513.33333333302</v>
-      </c>
-      <c r="N135" s="3">
-        <v>-290246.66666666698</v>
-      </c>
-      <c r="O135" s="3">
-        <v>-269955.66666666698</v>
-      </c>
-      <c r="P135" s="3">
-        <v>-253539</v>
-      </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
-        <v>44015</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45137</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E136" s="3"/>
-      <c r="F136" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D136" t="s">
+        <v>25</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="G136" s="4">
         <v>20251.2133333333</v>
       </c>
@@ -6794,34 +5390,27 @@
       <c r="L136" s="3">
         <v>12</v>
       </c>
-      <c r="M136" s="3">
-        <v>-318923.33333333302</v>
-      </c>
-      <c r="N136" s="3">
-        <v>-292456.66666666698</v>
-      </c>
-      <c r="O136" s="3">
-        <v>-272011.16666666698</v>
-      </c>
-      <c r="P136" s="3">
-        <v>-255469.5</v>
-      </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
-        <v>45108</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45165</v>
       </c>
       <c r="B137" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" t="s">
+        <v>25</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F137" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C137" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
       <c r="G137" s="4">
         <v>20401.453333333298</v>
       </c>
@@ -6840,34 +5429,27 @@
       <c r="L137" s="3">
         <v>12</v>
       </c>
-      <c r="M137" s="5">
-        <v>-321333.33333333302</v>
-      </c>
-      <c r="N137" s="5">
-        <v>-294666.66666666698</v>
-      </c>
-      <c r="O137" s="5">
-        <v>-274066.66666666698</v>
-      </c>
-      <c r="P137" s="5">
-        <v>-257400</v>
-      </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
-        <v>45109</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45157</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D138" t="s">
+        <v>25</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G138" s="4">
         <v>20551.6933333333</v>
       </c>
@@ -6886,34 +5468,27 @@
       <c r="L138" s="3">
         <v>12</v>
       </c>
-      <c r="M138" s="3">
-        <v>-323743.33333333302</v>
-      </c>
-      <c r="N138" s="3">
-        <v>-296876.66666666698</v>
-      </c>
-      <c r="O138" s="3">
-        <v>-276122.16666666698</v>
-      </c>
-      <c r="P138" s="3">
-        <v>-259330.5</v>
-      </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
-        <v>44015</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45157</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D139" t="s">
+        <v>25</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="G139" s="4">
         <v>20701.933333333302</v>
       </c>
@@ -6932,34 +5507,27 @@
       <c r="L139" s="3">
         <v>12</v>
       </c>
-      <c r="M139" s="3">
-        <v>-326153.33333333302</v>
-      </c>
-      <c r="N139" s="3">
-        <v>-299086.66666666698</v>
-      </c>
-      <c r="O139" s="3">
-        <v>-278177.66666666698</v>
-      </c>
-      <c r="P139" s="3">
-        <v>-261261</v>
-      </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
-        <v>45108</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45148</v>
       </c>
       <c r="B140" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D140" t="s">
+        <v>25</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F140" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C140" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
       <c r="G140" s="4">
         <v>20852.1733333333</v>
       </c>
@@ -6978,34 +5546,27 @@
       <c r="L140" s="3">
         <v>12</v>
       </c>
-      <c r="M140" s="5">
-        <v>-328563.33333333302</v>
-      </c>
-      <c r="N140" s="5">
-        <v>-301296.66666666698</v>
-      </c>
-      <c r="O140" s="5">
-        <v>-280233.16666666698</v>
-      </c>
-      <c r="P140" s="5">
-        <v>-263191.5</v>
-      </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
-        <v>45109</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45156</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E141" s="3"/>
-      <c r="F141" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D141" t="s">
+        <v>25</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G141" s="4">
         <v>21002.413333333301</v>
       </c>
@@ -7024,34 +5585,27 @@
       <c r="L141" s="3">
         <v>12</v>
       </c>
-      <c r="M141" s="3">
-        <v>-330973.33333333302</v>
-      </c>
-      <c r="N141" s="3">
-        <v>-303506.66666666698</v>
-      </c>
-      <c r="O141" s="3">
-        <v>-282288.66666666698</v>
-      </c>
-      <c r="P141" s="3">
-        <v>-265122</v>
-      </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
-        <v>44015</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45160</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E142" s="3"/>
-      <c r="F142" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D142" t="s">
+        <v>25</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="G142" s="4">
         <v>21152.653333333299</v>
       </c>
@@ -7070,34 +5624,27 @@
       <c r="L142" s="3">
         <v>12</v>
       </c>
-      <c r="M142" s="3">
-        <v>-333383.33333333302</v>
-      </c>
-      <c r="N142" s="3">
-        <v>-305716.66666666698</v>
-      </c>
-      <c r="O142" s="3">
-        <v>-284344.16666666698</v>
-      </c>
-      <c r="P142" s="3">
-        <v>-267052.5</v>
-      </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
-        <v>45108</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45157</v>
       </c>
       <c r="B143" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D143" t="s">
+        <v>25</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F143" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C143" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D143" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E143" s="3"/>
-      <c r="F143" s="3"/>
       <c r="G143" s="4">
         <v>21302.893333333301</v>
       </c>
@@ -7116,34 +5663,27 @@
       <c r="L143" s="3">
         <v>12</v>
       </c>
-      <c r="M143" s="5">
-        <v>-335793.33333333302</v>
-      </c>
-      <c r="N143" s="5">
-        <v>-307926.66666666698</v>
-      </c>
-      <c r="O143" s="5">
-        <v>-286399.66666666698</v>
-      </c>
-      <c r="P143" s="5">
-        <v>-268983</v>
-      </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
-        <v>45109</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45158</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D144" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E144" s="3"/>
-      <c r="F144" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D144" t="s">
+        <v>25</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G144" s="4">
         <v>21453.133333333299</v>
       </c>
@@ -7162,34 +5702,27 @@
       <c r="L144" s="3">
         <v>12</v>
       </c>
-      <c r="M144" s="3">
-        <v>-338203.33333333302</v>
-      </c>
-      <c r="N144" s="3">
-        <v>-310136.66666666698</v>
-      </c>
-      <c r="O144" s="3">
-        <v>-288455.16666666698</v>
-      </c>
-      <c r="P144" s="3">
-        <v>-270913.5</v>
-      </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
-        <v>44015</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45164</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E145" s="3"/>
-      <c r="F145" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D145" t="s">
+        <v>25</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="G145" s="4">
         <v>21603.3733333333</v>
       </c>
@@ -7208,34 +5741,27 @@
       <c r="L145" s="3">
         <v>12</v>
       </c>
-      <c r="M145" s="3">
-        <v>-340613.33333333302</v>
-      </c>
-      <c r="N145" s="3">
-        <v>-312346.66666666698</v>
-      </c>
-      <c r="O145" s="3">
-        <v>-290510.66666666698</v>
-      </c>
-      <c r="P145" s="3">
-        <v>-272844</v>
-      </c>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
-        <v>45108</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45160</v>
       </c>
       <c r="B146" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D146" t="s">
+        <v>25</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F146" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C146" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E146" s="3"/>
-      <c r="F146" s="3"/>
       <c r="G146" s="4">
         <v>21753.613333333298</v>
       </c>
@@ -7254,34 +5780,27 @@
       <c r="L146" s="3">
         <v>12</v>
       </c>
-      <c r="M146" s="5">
-        <v>-343023.33333333302</v>
-      </c>
-      <c r="N146" s="5">
-        <v>-314556.66666666698</v>
-      </c>
-      <c r="O146" s="5">
-        <v>-292566.16666666698</v>
-      </c>
-      <c r="P146" s="5">
-        <v>-274774.5</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
-        <v>45109</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45133</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E147" s="3"/>
-      <c r="F147" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D147" t="s">
+        <v>25</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G147" s="4">
         <v>21903.8533333333</v>
       </c>
@@ -7300,34 +5819,27 @@
       <c r="L147" s="3">
         <v>12</v>
       </c>
-      <c r="M147" s="3">
-        <v>-345433.33333333302</v>
-      </c>
-      <c r="N147" s="3">
-        <v>-316766.66666666698</v>
-      </c>
-      <c r="O147" s="3">
-        <v>-294621.66666666698</v>
-      </c>
-      <c r="P147" s="3">
-        <v>-276705</v>
-      </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
-        <v>44015</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45156</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E148" s="3"/>
-      <c r="F148" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D148" t="s">
+        <v>25</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="G148" s="4">
         <v>22054.093333333301</v>
       </c>
@@ -7346,34 +5858,27 @@
       <c r="L148" s="3">
         <v>12</v>
       </c>
-      <c r="M148" s="3">
-        <v>-347843.33333333302</v>
-      </c>
-      <c r="N148" s="3">
-        <v>-318976.66666666698</v>
-      </c>
-      <c r="O148" s="3">
-        <v>-296677.16666666698</v>
-      </c>
-      <c r="P148" s="3">
-        <v>-278635.5</v>
-      </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
-        <v>45108</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45144</v>
       </c>
       <c r="B149" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D149" t="s">
+        <v>25</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F149" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C149" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E149" s="3"/>
-      <c r="F149" s="3"/>
       <c r="G149" s="4">
         <v>22204.333333333299</v>
       </c>
@@ -7392,34 +5897,27 @@
       <c r="L149" s="3">
         <v>12</v>
       </c>
-      <c r="M149" s="5">
-        <v>-350253.33333333302</v>
-      </c>
-      <c r="N149" s="5">
-        <v>-321186.66666666698</v>
-      </c>
-      <c r="O149" s="5">
-        <v>-298732.66666666698</v>
-      </c>
-      <c r="P149" s="5">
-        <v>-280566</v>
-      </c>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
-        <v>45109</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45156</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E150" s="3"/>
-      <c r="F150" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D150" t="s">
+        <v>25</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="G150" s="4">
         <v>22354.573333333301</v>
       </c>
@@ -7438,34 +5936,27 @@
       <c r="L150" s="3">
         <v>12</v>
       </c>
-      <c r="M150" s="3">
-        <v>-352663.33333333302</v>
-      </c>
-      <c r="N150" s="3">
-        <v>-323396.66666666698</v>
-      </c>
-      <c r="O150" s="3">
-        <v>-300788.16666666698</v>
-      </c>
-      <c r="P150" s="3">
-        <v>-282496.5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
-        <v>44015</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45155</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E151" s="3"/>
-      <c r="F151" s="3"/>
+        <v>6</v>
+      </c>
+      <c r="D151" t="s">
+        <v>25</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="G151" s="4">
         <v>22504.813333333299</v>
       </c>
@@ -7484,34 +5975,27 @@
       <c r="L151" s="3">
         <v>12</v>
       </c>
-      <c r="M151" s="3">
-        <v>-355073.33333333302</v>
-      </c>
-      <c r="N151" s="3">
-        <v>-325606.66666666698</v>
-      </c>
-      <c r="O151" s="3">
-        <v>-302843.66666666698</v>
-      </c>
-      <c r="P151" s="3">
-        <v>-284427</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
-        <v>45108</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45131</v>
       </c>
       <c r="B152" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" t="s">
+        <v>25</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F152" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C152" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E152" s="3"/>
-      <c r="F152" s="3"/>
       <c r="G152" s="4">
         <v>22655.053333333301</v>
       </c>
@@ -7530,34 +6014,27 @@
       <c r="L152" s="3">
         <v>12</v>
       </c>
-      <c r="M152" s="5">
-        <v>-357483.33333333302</v>
-      </c>
-      <c r="N152" s="5">
-        <v>-327816.66666666698</v>
-      </c>
-      <c r="O152" s="5">
-        <v>-304899.16666666698</v>
-      </c>
-      <c r="P152" s="5">
-        <v>-286357.5</v>
-      </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
-        <v>45109</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>45132</v>
       </c>
       <c r="B153" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D153" t="s">
+        <v>25</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F153" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C153" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E153" s="3"/>
-      <c r="F153" s="3"/>
       <c r="G153" s="4">
         <v>22805.293333333299</v>
       </c>
@@ -7576,31 +6053,19 @@
       <c r="L153" s="3">
         <v>12</v>
       </c>
-      <c r="M153" s="3">
-        <v>-359893.33333333302</v>
-      </c>
-      <c r="N153" s="3">
-        <v>-330026.66666666698</v>
-      </c>
-      <c r="O153" s="3">
-        <v>-306954.66666666698</v>
-      </c>
-      <c r="P153" s="3">
-        <v>-288288</v>
-      </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A154" s="2">
-        <v>44015</v>
+    </row>
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="6">
+        <v>45139</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D154" t="s">
+        <v>23</v>
       </c>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
@@ -7622,31 +6087,19 @@
       <c r="L154" s="3">
         <v>12</v>
       </c>
-      <c r="M154" s="3">
-        <v>-362303.33333333302</v>
-      </c>
-      <c r="N154" s="3">
-        <v>-332236.66666666698</v>
-      </c>
-      <c r="O154" s="3">
-        <v>-309010.16666666698</v>
-      </c>
-      <c r="P154" s="3">
-        <v>-290218.5</v>
-      </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>45108</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D155" t="s">
+        <v>23</v>
       </c>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
@@ -7668,31 +6121,19 @@
       <c r="L155" s="3">
         <v>12</v>
       </c>
-      <c r="M155" s="5">
-        <v>-364713.33333333302</v>
-      </c>
-      <c r="N155" s="5">
-        <v>-334446.66666666698</v>
-      </c>
-      <c r="O155" s="5">
-        <v>-311065.66666666698</v>
-      </c>
-      <c r="P155" s="5">
-        <v>-292149</v>
-      </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>45109</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D156" t="s">
+        <v>23</v>
       </c>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
@@ -7714,31 +6155,19 @@
       <c r="L156" s="3">
         <v>12</v>
       </c>
-      <c r="M156" s="3">
-        <v>-367123.33333333302</v>
-      </c>
-      <c r="N156" s="3">
-        <v>-336656.66666666698</v>
-      </c>
-      <c r="O156" s="3">
-        <v>-313121.16666666698</v>
-      </c>
-      <c r="P156" s="3">
-        <v>-294079.5</v>
-      </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A157" s="2">
-        <v>44015</v>
+    </row>
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="6">
+        <v>45139</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D157" t="s">
+        <v>23</v>
       </c>
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
@@ -7760,31 +6189,19 @@
       <c r="L157" s="3">
         <v>12</v>
       </c>
-      <c r="M157" s="3">
-        <v>-369533.33333333302</v>
-      </c>
-      <c r="N157" s="3">
-        <v>-338866.66666666698</v>
-      </c>
-      <c r="O157" s="3">
-        <v>-315176.66666666698</v>
-      </c>
-      <c r="P157" s="3">
-        <v>-296010</v>
-      </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>45108</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D158" t="s">
+        <v>23</v>
       </c>
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
@@ -7806,31 +6223,19 @@
       <c r="L158" s="3">
         <v>12</v>
       </c>
-      <c r="M158" s="5">
-        <v>-371943.33333333302</v>
-      </c>
-      <c r="N158" s="5">
-        <v>-341076.66666666698</v>
-      </c>
-      <c r="O158" s="5">
-        <v>-317232.16666666698</v>
-      </c>
-      <c r="P158" s="5">
-        <v>-297940.5</v>
-      </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>45109</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D159" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D159" t="s">
+        <v>23</v>
       </c>
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
@@ -7852,31 +6257,19 @@
       <c r="L159" s="3">
         <v>12</v>
       </c>
-      <c r="M159" s="3">
-        <v>-374353.33333333302</v>
-      </c>
-      <c r="N159" s="3">
-        <v>-343286.66666666698</v>
-      </c>
-      <c r="O159" s="3">
-        <v>-319287.66666666698</v>
-      </c>
-      <c r="P159" s="3">
-        <v>-299871</v>
-      </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A160" s="2">
-        <v>44015</v>
+    </row>
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="6">
+        <v>45139</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D160" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D160" t="s">
+        <v>23</v>
       </c>
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
@@ -7898,31 +6291,19 @@
       <c r="L160" s="3">
         <v>12</v>
       </c>
-      <c r="M160" s="3">
-        <v>-376763.33333333302</v>
-      </c>
-      <c r="N160" s="3">
-        <v>-345496.66666666698</v>
-      </c>
-      <c r="O160" s="3">
-        <v>-321343.16666666698</v>
-      </c>
-      <c r="P160" s="3">
-        <v>-301801.5</v>
-      </c>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>45108</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D161" t="s">
+        <v>23</v>
       </c>
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
@@ -7944,31 +6325,19 @@
       <c r="L161" s="3">
         <v>12</v>
       </c>
-      <c r="M161" s="5">
-        <v>-379173.33333333302</v>
-      </c>
-      <c r="N161" s="5">
-        <v>-347706.66666666698</v>
-      </c>
-      <c r="O161" s="5">
-        <v>-323398.66666666698</v>
-      </c>
-      <c r="P161" s="5">
-        <v>-303732</v>
-      </c>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>45109</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D162" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D162" t="s">
+        <v>23</v>
       </c>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
@@ -7990,31 +6359,19 @@
       <c r="L162" s="3">
         <v>12</v>
       </c>
-      <c r="M162" s="3">
-        <v>-381583.33333333302</v>
-      </c>
-      <c r="N162" s="3">
-        <v>-349916.66666666698</v>
-      </c>
-      <c r="O162" s="3">
-        <v>-325454.16666666698</v>
-      </c>
-      <c r="P162" s="3">
-        <v>-305662.5</v>
-      </c>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A163" s="2">
-        <v>44015</v>
+    </row>
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="6">
+        <v>45139</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D163" t="s">
+        <v>23</v>
       </c>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
@@ -8036,31 +6393,19 @@
       <c r="L163" s="3">
         <v>12</v>
       </c>
-      <c r="M163" s="3">
-        <v>-383993.33333333302</v>
-      </c>
-      <c r="N163" s="3">
-        <v>-352126.66666666698</v>
-      </c>
-      <c r="O163" s="3">
-        <v>-327509.66666666698</v>
-      </c>
-      <c r="P163" s="3">
-        <v>-307593</v>
-      </c>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>45108</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D164" t="s">
+        <v>23</v>
       </c>
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
@@ -8082,31 +6427,19 @@
       <c r="L164" s="3">
         <v>12</v>
       </c>
-      <c r="M164" s="5">
-        <v>-386403.33333333302</v>
-      </c>
-      <c r="N164" s="5">
-        <v>-354336.66666666698</v>
-      </c>
-      <c r="O164" s="5">
-        <v>-329565.16666666698</v>
-      </c>
-      <c r="P164" s="5">
-        <v>-309523.5</v>
-      </c>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>45109</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D165" t="s">
+        <v>23</v>
       </c>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
@@ -8128,31 +6461,19 @@
       <c r="L165" s="3">
         <v>12</v>
       </c>
-      <c r="M165" s="3">
-        <v>-388813.33333333302</v>
-      </c>
-      <c r="N165" s="3">
-        <v>-356546.66666666698</v>
-      </c>
-      <c r="O165" s="3">
-        <v>-331620.66666666698</v>
-      </c>
-      <c r="P165" s="3">
-        <v>-311454</v>
-      </c>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A166" s="2">
-        <v>44015</v>
+    </row>
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="6">
+        <v>45139</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D166" t="s">
+        <v>23</v>
       </c>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
@@ -8174,31 +6495,19 @@
       <c r="L166" s="3">
         <v>12</v>
       </c>
-      <c r="M166" s="3">
-        <v>-391223.33333333302</v>
-      </c>
-      <c r="N166" s="3">
-        <v>-358756.66666666698</v>
-      </c>
-      <c r="O166" s="3">
-        <v>-333676.16666666698</v>
-      </c>
-      <c r="P166" s="3">
-        <v>-313384.5</v>
-      </c>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>45108</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D167" t="s">
+        <v>23</v>
       </c>
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
@@ -8220,31 +6529,19 @@
       <c r="L167" s="3">
         <v>12</v>
       </c>
-      <c r="M167" s="5">
-        <v>-393633.33333333302</v>
-      </c>
-      <c r="N167" s="5">
-        <v>-360966.66666666698</v>
-      </c>
-      <c r="O167" s="5">
-        <v>-335731.66666666698</v>
-      </c>
-      <c r="P167" s="5">
-        <v>-315315</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>45109</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D168" t="s">
+        <v>23</v>
       </c>
       <c r="E168" s="3"/>
       <c r="F168" s="3"/>
@@ -8266,31 +6563,19 @@
       <c r="L168" s="3">
         <v>12</v>
       </c>
-      <c r="M168" s="3">
-        <v>-396043.33333333302</v>
-      </c>
-      <c r="N168" s="3">
-        <v>-363176.66666666698</v>
-      </c>
-      <c r="O168" s="3">
-        <v>-337787.16666666698</v>
-      </c>
-      <c r="P168" s="3">
-        <v>-317245.5</v>
-      </c>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A169" s="2">
-        <v>44015</v>
+    </row>
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="6">
+        <v>45139</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D169" t="s">
+        <v>23</v>
       </c>
       <c r="E169" s="3"/>
       <c r="F169" s="3"/>
@@ -8312,31 +6597,19 @@
       <c r="L169" s="3">
         <v>12</v>
       </c>
-      <c r="M169" s="3">
-        <v>-398453.33333333302</v>
-      </c>
-      <c r="N169" s="3">
-        <v>-365386.66666666698</v>
-      </c>
-      <c r="O169" s="3">
-        <v>-339842.66666666698</v>
-      </c>
-      <c r="P169" s="3">
-        <v>-319176</v>
-      </c>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>45108</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D170" t="s">
+        <v>23</v>
       </c>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
@@ -8358,31 +6631,19 @@
       <c r="L170" s="3">
         <v>12</v>
       </c>
-      <c r="M170" s="5">
-        <v>-400863.33333333302</v>
-      </c>
-      <c r="N170" s="5">
-        <v>-367596.66666666698</v>
-      </c>
-      <c r="O170" s="5">
-        <v>-341898.16666666698</v>
-      </c>
-      <c r="P170" s="5">
-        <v>-321106.5</v>
-      </c>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>45109</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D171" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D171" t="s">
+        <v>23</v>
       </c>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
@@ -8404,31 +6665,19 @@
       <c r="L171" s="3">
         <v>12</v>
       </c>
-      <c r="M171" s="3">
-        <v>-403273.33333333302</v>
-      </c>
-      <c r="N171" s="3">
-        <v>-369806.66666666698</v>
-      </c>
-      <c r="O171" s="3">
-        <v>-343953.66666666698</v>
-      </c>
-      <c r="P171" s="3">
-        <v>-323037</v>
-      </c>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A172" s="2">
-        <v>44015</v>
+    </row>
+    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="6">
+        <v>45139</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D172" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D172" t="s">
+        <v>23</v>
       </c>
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
@@ -8450,31 +6699,19 @@
       <c r="L172" s="3">
         <v>12</v>
       </c>
-      <c r="M172" s="3">
-        <v>-405683.33333333302</v>
-      </c>
-      <c r="N172" s="3">
-        <v>-372016.66666666698</v>
-      </c>
-      <c r="O172" s="3">
-        <v>-346009.16666666698</v>
-      </c>
-      <c r="P172" s="3">
-        <v>-324967.5</v>
-      </c>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>45108</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D173" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D173" t="s">
+        <v>23</v>
       </c>
       <c r="E173" s="3"/>
       <c r="F173" s="3"/>
@@ -8496,31 +6733,19 @@
       <c r="L173" s="3">
         <v>12</v>
       </c>
-      <c r="M173" s="5">
-        <v>-408093.33333333302</v>
-      </c>
-      <c r="N173" s="5">
-        <v>-374226.66666666698</v>
-      </c>
-      <c r="O173" s="5">
-        <v>-348064.66666666698</v>
-      </c>
-      <c r="P173" s="5">
-        <v>-326898</v>
-      </c>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>45109</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D174" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D174" t="s">
+        <v>23</v>
       </c>
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
@@ -8542,31 +6767,19 @@
       <c r="L174" s="3">
         <v>12</v>
       </c>
-      <c r="M174" s="3">
-        <v>-410503.33333333302</v>
-      </c>
-      <c r="N174" s="3">
-        <v>-376436.66666666698</v>
-      </c>
-      <c r="O174" s="3">
-        <v>-350120.16666666698</v>
-      </c>
-      <c r="P174" s="3">
-        <v>-328828.5</v>
-      </c>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A175" s="2">
-        <v>44015</v>
+    </row>
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="6">
+        <v>45139</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D175" t="s">
+        <v>23</v>
       </c>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
@@ -8588,31 +6801,19 @@
       <c r="L175" s="3">
         <v>12</v>
       </c>
-      <c r="M175" s="3">
-        <v>-412913.33333333302</v>
-      </c>
-      <c r="N175" s="3">
-        <v>-378646.66666666698</v>
-      </c>
-      <c r="O175" s="3">
-        <v>-352175.66666666698</v>
-      </c>
-      <c r="P175" s="3">
-        <v>-330759</v>
-      </c>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>45108</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D176" t="s">
+        <v>23</v>
       </c>
       <c r="E176" s="3"/>
       <c r="F176" s="3"/>
@@ -8634,31 +6835,19 @@
       <c r="L176" s="3">
         <v>12</v>
       </c>
-      <c r="M176" s="5">
-        <v>-415323.33333333302</v>
-      </c>
-      <c r="N176" s="5">
-        <v>-380856.66666666698</v>
-      </c>
-      <c r="O176" s="5">
-        <v>-354231.16666666698</v>
-      </c>
-      <c r="P176" s="5">
-        <v>-332689.5</v>
-      </c>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>45109</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D177" t="s">
+        <v>23</v>
       </c>
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
@@ -8680,31 +6869,19 @@
       <c r="L177" s="3">
         <v>12</v>
       </c>
-      <c r="M177" s="3">
-        <v>-417733.33333333302</v>
-      </c>
-      <c r="N177" s="3">
-        <v>-383066.66666666698</v>
-      </c>
-      <c r="O177" s="3">
-        <v>-356286.66666666698</v>
-      </c>
-      <c r="P177" s="3">
-        <v>-334620</v>
-      </c>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A178" s="2">
-        <v>44015</v>
+    </row>
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="6">
+        <v>45139</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D178" t="s">
+        <v>23</v>
       </c>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
@@ -8726,31 +6903,19 @@
       <c r="L178" s="3">
         <v>12</v>
       </c>
-      <c r="M178" s="3">
-        <v>-420143.33333333302</v>
-      </c>
-      <c r="N178" s="3">
-        <v>-385276.66666666698</v>
-      </c>
-      <c r="O178" s="3">
-        <v>-358342.16666666698</v>
-      </c>
-      <c r="P178" s="3">
-        <v>-336550.5</v>
-      </c>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>45108</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D179" t="s">
+        <v>23</v>
       </c>
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
@@ -8772,31 +6937,19 @@
       <c r="L179" s="3">
         <v>12</v>
       </c>
-      <c r="M179" s="5">
-        <v>-422553.33333333302</v>
-      </c>
-      <c r="N179" s="5">
-        <v>-387486.66666666698</v>
-      </c>
-      <c r="O179" s="5">
-        <v>-360397.66666666698</v>
-      </c>
-      <c r="P179" s="5">
-        <v>-338481</v>
-      </c>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>45109</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D180" t="s">
+        <v>23</v>
       </c>
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
@@ -8818,31 +6971,19 @@
       <c r="L180" s="3">
         <v>12</v>
       </c>
-      <c r="M180" s="3">
-        <v>-424963.33333333302</v>
-      </c>
-      <c r="N180" s="3">
-        <v>-389696.66666666698</v>
-      </c>
-      <c r="O180" s="3">
-        <v>-362453.16666666698</v>
-      </c>
-      <c r="P180" s="3">
-        <v>-340411.5</v>
-      </c>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A181" s="2">
-        <v>44015</v>
+    </row>
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="6">
+        <v>45139</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D181" t="s">
+        <v>23</v>
       </c>
       <c r="E181" s="3"/>
       <c r="F181" s="3"/>
@@ -8864,31 +7005,19 @@
       <c r="L181" s="3">
         <v>12</v>
       </c>
-      <c r="M181" s="3">
-        <v>-427373.33333333302</v>
-      </c>
-      <c r="N181" s="3">
-        <v>-391906.66666666698</v>
-      </c>
-      <c r="O181" s="3">
-        <v>-364508.66666666698</v>
-      </c>
-      <c r="P181" s="3">
-        <v>-342342</v>
-      </c>
-    </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>45108</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D182" t="s">
+        <v>23</v>
       </c>
       <c r="E182" s="3"/>
       <c r="F182" s="3"/>
@@ -8910,31 +7039,19 @@
       <c r="L182" s="3">
         <v>12</v>
       </c>
-      <c r="M182" s="5">
-        <v>-429783.33333333302</v>
-      </c>
-      <c r="N182" s="5">
-        <v>-394116.66666666698</v>
-      </c>
-      <c r="O182" s="5">
-        <v>-366564.16666666698</v>
-      </c>
-      <c r="P182" s="5">
-        <v>-344272.5</v>
-      </c>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>45109</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D183" t="s">
+        <v>23</v>
       </c>
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
@@ -8956,31 +7073,19 @@
       <c r="L183" s="3">
         <v>12</v>
       </c>
-      <c r="M183" s="3">
-        <v>-432193.33333333302</v>
-      </c>
-      <c r="N183" s="3">
-        <v>-396326.66666666698</v>
-      </c>
-      <c r="O183" s="3">
-        <v>-368619.66666666698</v>
-      </c>
-      <c r="P183" s="3">
-        <v>-346203</v>
-      </c>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A184" s="2">
-        <v>44015</v>
+    </row>
+    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="6">
+        <v>45139</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D184" t="s">
+        <v>23</v>
       </c>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
@@ -9002,31 +7107,19 @@
       <c r="L184" s="3">
         <v>12</v>
       </c>
-      <c r="M184" s="3">
-        <v>-434603.33333333302</v>
-      </c>
-      <c r="N184" s="3">
-        <v>-398536.66666666698</v>
-      </c>
-      <c r="O184" s="3">
-        <v>-370675.16666666698</v>
-      </c>
-      <c r="P184" s="3">
-        <v>-348133.5</v>
-      </c>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>45108</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D185" t="s">
+        <v>23</v>
       </c>
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
@@ -9048,31 +7141,19 @@
       <c r="L185" s="3">
         <v>12</v>
       </c>
-      <c r="M185" s="5">
-        <v>-437013.33333333302</v>
-      </c>
-      <c r="N185" s="5">
-        <v>-400746.66666666698</v>
-      </c>
-      <c r="O185" s="5">
-        <v>-372730.66666666698</v>
-      </c>
-      <c r="P185" s="5">
-        <v>-350064</v>
-      </c>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>45109</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D186" t="s">
+        <v>23</v>
       </c>
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
@@ -9094,31 +7175,19 @@
       <c r="L186" s="3">
         <v>12</v>
       </c>
-      <c r="M186" s="3">
-        <v>-439423.33333333302</v>
-      </c>
-      <c r="N186" s="3">
-        <v>-402956.66666666698</v>
-      </c>
-      <c r="O186" s="3">
-        <v>-374786.16666666698</v>
-      </c>
-      <c r="P186" s="3">
-        <v>-351994.5</v>
-      </c>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A187" s="2">
-        <v>44015</v>
+    </row>
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="6">
+        <v>45139</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D187" t="s">
+        <v>23</v>
       </c>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
@@ -9140,31 +7209,19 @@
       <c r="L187" s="3">
         <v>12</v>
       </c>
-      <c r="M187" s="3">
-        <v>-441833.33333333302</v>
-      </c>
-      <c r="N187" s="3">
-        <v>-405166.66666666698</v>
-      </c>
-      <c r="O187" s="3">
-        <v>-376841.66666666698</v>
-      </c>
-      <c r="P187" s="3">
-        <v>-353925</v>
-      </c>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>45108</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D188" t="s">
+        <v>23</v>
       </c>
       <c r="E188" s="3"/>
       <c r="F188" s="3"/>
@@ -9186,31 +7243,19 @@
       <c r="L188" s="3">
         <v>12</v>
       </c>
-      <c r="M188" s="5">
-        <v>-444243.33333333302</v>
-      </c>
-      <c r="N188" s="5">
-        <v>-407376.66666666698</v>
-      </c>
-      <c r="O188" s="5">
-        <v>-378897.16666666698</v>
-      </c>
-      <c r="P188" s="5">
-        <v>-355855.5</v>
-      </c>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>45109</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D189" t="s">
+        <v>23</v>
       </c>
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
@@ -9232,31 +7277,19 @@
       <c r="L189" s="3">
         <v>12</v>
       </c>
-      <c r="M189" s="3">
-        <v>-446653.33333333302</v>
-      </c>
-      <c r="N189" s="3">
-        <v>-409586.66666666698</v>
-      </c>
-      <c r="O189" s="3">
-        <v>-380952.66666666698</v>
-      </c>
-      <c r="P189" s="3">
-        <v>-357786</v>
-      </c>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A190" s="2">
-        <v>44015</v>
+    </row>
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="6">
+        <v>45139</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D190" t="s">
+        <v>23</v>
       </c>
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
@@ -9278,31 +7311,19 @@
       <c r="L190" s="3">
         <v>12</v>
       </c>
-      <c r="M190" s="3">
-        <v>-449063.33333333302</v>
-      </c>
-      <c r="N190" s="3">
-        <v>-411796.66666666698</v>
-      </c>
-      <c r="O190" s="3">
-        <v>-383008.16666666698</v>
-      </c>
-      <c r="P190" s="3">
-        <v>-359716.5</v>
-      </c>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>45108</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D191" t="s">
+        <v>23</v>
       </c>
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
@@ -9324,31 +7345,19 @@
       <c r="L191" s="3">
         <v>12</v>
       </c>
-      <c r="M191" s="5">
-        <v>-451473.33333333302</v>
-      </c>
-      <c r="N191" s="5">
-        <v>-414006.66666666698</v>
-      </c>
-      <c r="O191" s="5">
-        <v>-385063.66666666698</v>
-      </c>
-      <c r="P191" s="5">
-        <v>-361647</v>
-      </c>
-    </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>45109</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D192" t="s">
+        <v>23</v>
       </c>
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
@@ -9370,31 +7379,19 @@
       <c r="L192" s="3">
         <v>12</v>
       </c>
-      <c r="M192" s="3">
-        <v>-453883.33333333302</v>
-      </c>
-      <c r="N192" s="3">
-        <v>-416216.66666666698</v>
-      </c>
-      <c r="O192" s="3">
-        <v>-387119.16666666698</v>
-      </c>
-      <c r="P192" s="3">
-        <v>-363577.5</v>
-      </c>
-    </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A193" s="2">
-        <v>44015</v>
+    </row>
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="6">
+        <v>45139</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D193" t="s">
+        <v>23</v>
       </c>
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
@@ -9416,31 +7413,19 @@
       <c r="L193" s="3">
         <v>12</v>
       </c>
-      <c r="M193" s="3">
-        <v>-456293.33333333302</v>
-      </c>
-      <c r="N193" s="3">
-        <v>-418426.66666666698</v>
-      </c>
-      <c r="O193" s="3">
-        <v>-389174.66666666698</v>
-      </c>
-      <c r="P193" s="3">
-        <v>-365508</v>
-      </c>
-    </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>45108</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D194" t="s">
+        <v>23</v>
       </c>
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
@@ -9462,31 +7447,19 @@
       <c r="L194" s="3">
         <v>12</v>
       </c>
-      <c r="M194" s="5">
-        <v>-458703.33333333302</v>
-      </c>
-      <c r="N194" s="5">
-        <v>-420636.66666666698</v>
-      </c>
-      <c r="O194" s="5">
-        <v>-391230.16666666698</v>
-      </c>
-      <c r="P194" s="5">
-        <v>-367438.5</v>
-      </c>
-    </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>45109</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D195" t="s">
+        <v>23</v>
       </c>
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
@@ -9508,31 +7481,19 @@
       <c r="L195" s="3">
         <v>12</v>
       </c>
-      <c r="M195" s="3">
-        <v>-461113.33333333302</v>
-      </c>
-      <c r="N195" s="3">
-        <v>-422846.66666666698</v>
-      </c>
-      <c r="O195" s="3">
-        <v>-393285.66666666698</v>
-      </c>
-      <c r="P195" s="3">
-        <v>-369369</v>
-      </c>
-    </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A196" s="2">
-        <v>44015</v>
+    </row>
+    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="6">
+        <v>45139</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D196" t="s">
+        <v>23</v>
       </c>
       <c r="E196" s="3"/>
       <c r="F196" s="3"/>
@@ -9554,31 +7515,19 @@
       <c r="L196" s="3">
         <v>12</v>
       </c>
-      <c r="M196" s="3">
-        <v>-463523.33333333302</v>
-      </c>
-      <c r="N196" s="3">
-        <v>-425056.66666666698</v>
-      </c>
-      <c r="O196" s="3">
-        <v>-395341.16666666698</v>
-      </c>
-      <c r="P196" s="3">
-        <v>-371299.5</v>
-      </c>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>45108</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D197" t="s">
+        <v>23</v>
       </c>
       <c r="E197" s="3"/>
       <c r="F197" s="3"/>
@@ -9600,31 +7549,19 @@
       <c r="L197" s="3">
         <v>12</v>
       </c>
-      <c r="M197" s="5">
-        <v>-465933.33333333302</v>
-      </c>
-      <c r="N197" s="5">
-        <v>-427266.66666666698</v>
-      </c>
-      <c r="O197" s="5">
-        <v>-397396.66666666698</v>
-      </c>
-      <c r="P197" s="5">
-        <v>-373230</v>
-      </c>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>45109</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D198" t="s">
+        <v>23</v>
       </c>
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
@@ -9646,31 +7583,19 @@
       <c r="L198" s="3">
         <v>12</v>
       </c>
-      <c r="M198" s="3">
-        <v>-468343.33333333302</v>
-      </c>
-      <c r="N198" s="3">
-        <v>-429476.66666666698</v>
-      </c>
-      <c r="O198" s="3">
-        <v>-399452.16666666698</v>
-      </c>
-      <c r="P198" s="3">
-        <v>-375160.5</v>
-      </c>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A199" s="2">
-        <v>44015</v>
+    </row>
+    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="6">
+        <v>45139</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D199" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D199" t="s">
+        <v>23</v>
       </c>
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
@@ -9692,31 +7617,19 @@
       <c r="L199" s="3">
         <v>12</v>
       </c>
-      <c r="M199" s="3">
-        <v>-470753.33333333302</v>
-      </c>
-      <c r="N199" s="3">
-        <v>-431686.66666666698</v>
-      </c>
-      <c r="O199" s="3">
-        <v>-401507.66666666698</v>
-      </c>
-      <c r="P199" s="3">
-        <v>-377091</v>
-      </c>
-    </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>45108</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D200" t="s">
+        <v>23</v>
       </c>
       <c r="E200" s="3"/>
       <c r="F200" s="3"/>
@@ -9738,31 +7651,19 @@
       <c r="L200" s="3">
         <v>12</v>
       </c>
-      <c r="M200" s="5">
-        <v>-473163.33333333302</v>
-      </c>
-      <c r="N200" s="5">
-        <v>-433896.66666666698</v>
-      </c>
-      <c r="O200" s="5">
-        <v>-403563.16666666698</v>
-      </c>
-      <c r="P200" s="5">
-        <v>-379021.5</v>
-      </c>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>45109</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D201" t="s">
+        <v>23</v>
       </c>
       <c r="E201" s="3"/>
       <c r="F201" s="3"/>
@@ -9784,31 +7685,19 @@
       <c r="L201" s="3">
         <v>12</v>
       </c>
-      <c r="M201" s="3">
-        <v>-475573.33333333302</v>
-      </c>
-      <c r="N201" s="3">
-        <v>-436106.66666666698</v>
-      </c>
-      <c r="O201" s="3">
-        <v>-405618.66666666698</v>
-      </c>
-      <c r="P201" s="3">
-        <v>-380952</v>
-      </c>
-    </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A202" s="2">
-        <v>44015</v>
+    </row>
+    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="6">
+        <v>45139</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D202" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D202" t="s">
+        <v>23</v>
       </c>
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
@@ -9830,31 +7719,19 @@
       <c r="L202" s="3">
         <v>12</v>
       </c>
-      <c r="M202" s="3">
-        <v>-477983.33333333302</v>
-      </c>
-      <c r="N202" s="3">
-        <v>-438316.66666666698</v>
-      </c>
-      <c r="O202" s="3">
-        <v>-407674.16666666698</v>
-      </c>
-      <c r="P202" s="3">
-        <v>-382882.5</v>
-      </c>
-    </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>45108</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D203" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D203" t="s">
+        <v>23</v>
       </c>
       <c r="E203" s="3"/>
       <c r="F203" s="3"/>
@@ -9876,31 +7753,19 @@
       <c r="L203" s="3">
         <v>12</v>
       </c>
-      <c r="M203" s="5">
-        <v>-480393.33333333302</v>
-      </c>
-      <c r="N203" s="5">
-        <v>-440526.66666666698</v>
-      </c>
-      <c r="O203" s="5">
-        <v>-409729.66666666698</v>
-      </c>
-      <c r="P203" s="5">
-        <v>-384813</v>
-      </c>
-    </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>45109</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D204" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D204" t="s">
+        <v>23</v>
       </c>
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
@@ -9922,31 +7787,19 @@
       <c r="L204" s="3">
         <v>12</v>
       </c>
-      <c r="M204" s="3">
-        <v>-482803.33333333302</v>
-      </c>
-      <c r="N204" s="3">
-        <v>-442736.66666666698</v>
-      </c>
-      <c r="O204" s="3">
-        <v>-411785.16666666698</v>
-      </c>
-      <c r="P204" s="3">
-        <v>-386743.5</v>
-      </c>
-    </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A205" s="2">
-        <v>44015</v>
+    </row>
+    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="6">
+        <v>45139</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D205" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D205" t="s">
+        <v>23</v>
       </c>
       <c r="E205" s="3"/>
       <c r="F205" s="3"/>
@@ -9968,31 +7821,19 @@
       <c r="L205" s="3">
         <v>12</v>
       </c>
-      <c r="M205" s="3">
-        <v>-485213.33333333302</v>
-      </c>
-      <c r="N205" s="3">
-        <v>-444946.66666666698</v>
-      </c>
-      <c r="O205" s="3">
-        <v>-413840.66666666698</v>
-      </c>
-      <c r="P205" s="3">
-        <v>-388674</v>
-      </c>
-    </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>45108</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D206" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D206" t="s">
+        <v>23</v>
       </c>
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
@@ -10014,31 +7855,19 @@
       <c r="L206" s="3">
         <v>12</v>
       </c>
-      <c r="M206" s="5">
-        <v>-487623.33333333302</v>
-      </c>
-      <c r="N206" s="5">
-        <v>-447156.66666666698</v>
-      </c>
-      <c r="O206" s="5">
-        <v>-415896.16666666698</v>
-      </c>
-      <c r="P206" s="5">
-        <v>-390604.5</v>
-      </c>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>45109</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D207" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D207" t="s">
+        <v>23</v>
       </c>
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
@@ -10060,31 +7889,19 @@
       <c r="L207" s="3">
         <v>12</v>
       </c>
-      <c r="M207" s="3">
-        <v>-490033.33333333302</v>
-      </c>
-      <c r="N207" s="3">
-        <v>-449366.66666666698</v>
-      </c>
-      <c r="O207" s="3">
-        <v>-417951.66666666698</v>
-      </c>
-      <c r="P207" s="3">
-        <v>-392535</v>
-      </c>
-    </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A208" s="2">
-        <v>44015</v>
+    </row>
+    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="6">
+        <v>45139</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D208" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D208" t="s">
+        <v>23</v>
       </c>
       <c r="E208" s="3"/>
       <c r="F208" s="3"/>
@@ -10106,31 +7923,19 @@
       <c r="L208" s="3">
         <v>12</v>
       </c>
-      <c r="M208" s="3">
-        <v>-492443.33333333302</v>
-      </c>
-      <c r="N208" s="3">
-        <v>-451576.66666666698</v>
-      </c>
-      <c r="O208" s="3">
-        <v>-420007.16666666698</v>
-      </c>
-      <c r="P208" s="3">
-        <v>-394465.5</v>
-      </c>
-    </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>45108</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D209" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D209" t="s">
+        <v>23</v>
       </c>
       <c r="E209" s="3"/>
       <c r="F209" s="3"/>
@@ -10152,31 +7957,19 @@
       <c r="L209" s="3">
         <v>12</v>
       </c>
-      <c r="M209" s="5">
-        <v>-494853.33333333302</v>
-      </c>
-      <c r="N209" s="5">
-        <v>-453786.66666666698</v>
-      </c>
-      <c r="O209" s="5">
-        <v>-422062.66666666698</v>
-      </c>
-      <c r="P209" s="5">
-        <v>-396396</v>
-      </c>
-    </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>45109</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D210" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D210" t="s">
+        <v>23</v>
       </c>
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
@@ -10198,31 +7991,19 @@
       <c r="L210" s="3">
         <v>12</v>
       </c>
-      <c r="M210" s="3">
-        <v>-497263.33333333302</v>
-      </c>
-      <c r="N210" s="3">
-        <v>-455996.66666666698</v>
-      </c>
-      <c r="O210" s="3">
-        <v>-424118.16666666698</v>
-      </c>
-      <c r="P210" s="3">
-        <v>-398326.5</v>
-      </c>
-    </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A211" s="2">
-        <v>44015</v>
+    </row>
+    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="6">
+        <v>45139</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D211" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D211" t="s">
+        <v>23</v>
       </c>
       <c r="E211" s="3"/>
       <c r="F211" s="3"/>
@@ -10244,31 +8025,19 @@
       <c r="L211" s="3">
         <v>12</v>
       </c>
-      <c r="M211" s="3">
-        <v>-499673.33333333302</v>
-      </c>
-      <c r="N211" s="3">
-        <v>-458206.66666666698</v>
-      </c>
-      <c r="O211" s="3">
-        <v>-426173.66666666698</v>
-      </c>
-      <c r="P211" s="3">
-        <v>-400257</v>
-      </c>
-    </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>45108</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D212" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D212" t="s">
+        <v>23</v>
       </c>
       <c r="E212" s="3"/>
       <c r="F212" s="3"/>
@@ -10290,31 +8059,19 @@
       <c r="L212" s="3">
         <v>12</v>
       </c>
-      <c r="M212" s="5">
-        <v>-502083.33333333302</v>
-      </c>
-      <c r="N212" s="5">
-        <v>-460416.66666666698</v>
-      </c>
-      <c r="O212" s="5">
-        <v>-428229.16666666698</v>
-      </c>
-      <c r="P212" s="5">
-        <v>-402187.5</v>
-      </c>
-    </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>45109</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D213" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D213" t="s">
+        <v>23</v>
       </c>
       <c r="E213" s="3"/>
       <c r="F213" s="3"/>
@@ -10336,31 +8093,19 @@
       <c r="L213" s="3">
         <v>12</v>
       </c>
-      <c r="M213" s="3">
-        <v>-504493.33333333302</v>
-      </c>
-      <c r="N213" s="3">
-        <v>-462626.66666666698</v>
-      </c>
-      <c r="O213" s="3">
-        <v>-430284.66666666698</v>
-      </c>
-      <c r="P213" s="3">
-        <v>-404118</v>
-      </c>
-    </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A214" s="2">
-        <v>44015</v>
+    </row>
+    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="6">
+        <v>45139</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D214" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D214" t="s">
+        <v>23</v>
       </c>
       <c r="E214" s="3"/>
       <c r="F214" s="3"/>
@@ -10382,31 +8127,19 @@
       <c r="L214" s="3">
         <v>12</v>
       </c>
-      <c r="M214" s="3">
-        <v>-506903.33333333302</v>
-      </c>
-      <c r="N214" s="3">
-        <v>-464836.66666666698</v>
-      </c>
-      <c r="O214" s="3">
-        <v>-432340.16666666698</v>
-      </c>
-      <c r="P214" s="3">
-        <v>-406048.5</v>
-      </c>
-    </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>45108</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D215" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D215" t="s">
+        <v>23</v>
       </c>
       <c r="E215" s="3"/>
       <c r="F215" s="3"/>
@@ -10428,31 +8161,19 @@
       <c r="L215" s="3">
         <v>12</v>
       </c>
-      <c r="M215" s="5">
-        <v>-509313.33333333302</v>
-      </c>
-      <c r="N215" s="5">
-        <v>-467046.66666666698</v>
-      </c>
-      <c r="O215" s="5">
-        <v>-434395.66666666698</v>
-      </c>
-      <c r="P215" s="5">
-        <v>-407979</v>
-      </c>
-    </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>45109</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D216" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D216" t="s">
+        <v>23</v>
       </c>
       <c r="E216" s="3"/>
       <c r="F216" s="3"/>
@@ -10474,31 +8195,19 @@
       <c r="L216" s="3">
         <v>12</v>
       </c>
-      <c r="M216" s="3">
-        <v>-511723.33333333302</v>
-      </c>
-      <c r="N216" s="3">
-        <v>-469256.66666666698</v>
-      </c>
-      <c r="O216" s="3">
-        <v>-436451.16666666698</v>
-      </c>
-      <c r="P216" s="3">
-        <v>-409909.5</v>
-      </c>
-    </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A217" s="2">
-        <v>44015</v>
+    </row>
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="6">
+        <v>45139</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D217" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D217" t="s">
+        <v>23</v>
       </c>
       <c r="E217" s="3"/>
       <c r="F217" s="3"/>
@@ -10520,31 +8229,19 @@
       <c r="L217" s="3">
         <v>12</v>
       </c>
-      <c r="M217" s="3">
-        <v>-514133.33333333302</v>
-      </c>
-      <c r="N217" s="3">
-        <v>-471466.66666666698</v>
-      </c>
-      <c r="O217" s="3">
-        <v>-438506.66666666698</v>
-      </c>
-      <c r="P217" s="3">
-        <v>-411840</v>
-      </c>
-    </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>45108</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D218" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D218" t="s">
+        <v>23</v>
       </c>
       <c r="E218" s="3"/>
       <c r="F218" s="3"/>
@@ -10566,31 +8263,19 @@
       <c r="L218" s="3">
         <v>12</v>
       </c>
-      <c r="M218" s="5">
-        <v>-516543.33333333302</v>
-      </c>
-      <c r="N218" s="5">
-        <v>-473676.66666666698</v>
-      </c>
-      <c r="O218" s="5">
-        <v>-440562.16666666698</v>
-      </c>
-      <c r="P218" s="5">
-        <v>-413770.5</v>
-      </c>
-    </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>45109</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D219" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D219" t="s">
+        <v>23</v>
       </c>
       <c r="E219" s="3"/>
       <c r="F219" s="3"/>
@@ -10612,31 +8297,19 @@
       <c r="L219" s="3">
         <v>12</v>
       </c>
-      <c r="M219" s="3">
-        <v>-518953.33333333302</v>
-      </c>
-      <c r="N219" s="3">
-        <v>-475886.66666666698</v>
-      </c>
-      <c r="O219" s="3">
-        <v>-442617.66666666698</v>
-      </c>
-      <c r="P219" s="3">
-        <v>-415701</v>
-      </c>
-    </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A220" s="2">
-        <v>44015</v>
+    </row>
+    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="6">
+        <v>45139</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D220" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D220" t="s">
+        <v>23</v>
       </c>
       <c r="E220" s="3"/>
       <c r="F220" s="3"/>
@@ -10658,31 +8331,19 @@
       <c r="L220" s="3">
         <v>12</v>
       </c>
-      <c r="M220" s="3">
-        <v>-521363.33333333302</v>
-      </c>
-      <c r="N220" s="3">
-        <v>-478096.66666666698</v>
-      </c>
-      <c r="O220" s="3">
-        <v>-444673.16666666698</v>
-      </c>
-      <c r="P220" s="3">
-        <v>-417631.5</v>
-      </c>
-    </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>45108</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D221" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D221" t="s">
+        <v>23</v>
       </c>
       <c r="E221" s="3"/>
       <c r="F221" s="3"/>
@@ -10704,31 +8365,19 @@
       <c r="L221" s="3">
         <v>12</v>
       </c>
-      <c r="M221" s="5">
-        <v>-523773.33333333302</v>
-      </c>
-      <c r="N221" s="5">
-        <v>-480306.66666666698</v>
-      </c>
-      <c r="O221" s="5">
-        <v>-446728.66666666698</v>
-      </c>
-      <c r="P221" s="5">
-        <v>-419562</v>
-      </c>
-    </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>45109</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D222" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D222" t="s">
+        <v>23</v>
       </c>
       <c r="E222" s="3"/>
       <c r="F222" s="3"/>
@@ -10750,31 +8399,19 @@
       <c r="L222" s="3">
         <v>12</v>
       </c>
-      <c r="M222" s="3">
-        <v>-526183.33333333302</v>
-      </c>
-      <c r="N222" s="3">
-        <v>-482516.66666666698</v>
-      </c>
-      <c r="O222" s="3">
-        <v>-448784.16666666698</v>
-      </c>
-      <c r="P222" s="3">
-        <v>-421492.5</v>
-      </c>
-    </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A223" s="2">
-        <v>44015</v>
+    </row>
+    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="6">
+        <v>45139</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D223" s="3" t="s">
-        <v>30</v>
+        <v>7</v>
+      </c>
+      <c r="D223" t="s">
+        <v>23</v>
       </c>
       <c r="E223" s="3"/>
       <c r="F223" s="3"/>
@@ -10796,20 +8433,15 @@
       <c r="L223" s="3">
         <v>12</v>
       </c>
-      <c r="M223" s="3">
-        <v>-528593.33333333302</v>
-      </c>
-      <c r="N223" s="3">
-        <v>-484726.66666666698</v>
-      </c>
-      <c r="O223" s="3">
-        <v>-450839.66666666698</v>
-      </c>
-      <c r="P223" s="3">
-        <v>-423423</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L223" xr:uid="{C738259D-B6ED-754E-861B-CE2294D8A180}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="FR - Sphinx"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>